--- a/Data Files/Login and Spin.xlsx
+++ b/Data Files/Login and Spin.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="227">
   <si>
     <t/>
   </si>
@@ -25,7 +25,7 @@
     <t>round_id</t>
   </si>
   <si>
-    <t>5d1f088832fbc3000145a157-482</t>
+    <t>5d1f088832fbc3000145a157-545</t>
   </si>
   <si>
     <t>balance</t>
@@ -64,27 +64,30 @@
     <t>causality</t>
   </si>
   <si>
-    <t>1a06b02d-5538-44dd-b36c-438d85342fbc</t>
+    <t>8a6cb248-6153-4541-95bd-be4f176c99a2</t>
   </si>
   <si>
     <t>reels</t>
   </si>
   <si>
-    <t>[[symbols:[[symbol:Q], [symbol:T], [symbol:PIC4]]], [symbols:[[symbol:K], [symbol:PIC1], [symbol:A]]], [symbols:[[symbol:PIC4], [symbol:K], [symbol:A]]], [symbols:[[symbol:A], [symbol:J], [symbol:PIC2]]], [symbols:[[symbol:PIC3], [symbol:J], [symbol:N]]]]</t>
+    <t>[[symbols:[[symbol:Q], [symbol:PIC1], [symbol:K]]], [symbols:[[symbol:PIC1], [symbol:A], [symbol:K]]], [symbols:[[symbol:T], [symbol:J], [symbol:WILD]]], [symbols:[[symbol:J], [symbol:PIC2], [symbol:K]]], [symbols:[[symbol:PIC3], [symbol:J], [symbol:N]]]]</t>
   </si>
   <si>
     <t>reel_wins</t>
   </si>
   <si>
+    <t>[[line_config:[[1], [0], [2], [*], [*]], line_number:0, of_kind:3, prize:2000.0, right_to_left:false, symbol:PIC1, wild_win:true], [line_config:[[2], [2], [2], [2], [*]], line_number:0, of_kind:4, prize:2000.0, right_to_left:false, symbol:K, wild_win:true]]</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>features_triggered</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>features_triggered</t>
-  </si>
-  <si>
     <t>scatter_win</t>
   </si>
   <si>
@@ -163,6 +166,9 @@
     <t>reels_wins</t>
   </si>
   <si>
+    <t>[[line_config:[[1], [0], [2], [*], [*]], line_number:1, of_kind:3, prize:2000, reel_set:0, right_to_left:false, symbol:PIC1, wild_win:true], [line_config:[[2], [2], [2], [2], [*]], line_number:1, of_kind:4, prize:2000, reel_set:0, right_to_left:false, symbol:K, wild_win:true]]</t>
+  </si>
+  <si>
     <t>transaction_type</t>
   </si>
   <si>
@@ -178,7 +184,7 @@
     <t>txDate</t>
   </si>
   <si>
-    <t>2019/07/18 06:35:28</t>
+    <t>2019/07/18 08:26:43</t>
   </si>
   <si>
     <t>playerId</t>
@@ -244,7 +250,7 @@
     <t>totalNum</t>
   </si>
   <si>
-    <t>4673840</t>
+    <t>4636440</t>
   </si>
   <si>
     <t>totalBetValue</t>
@@ -283,7 +289,7 @@
     <t>titmestamp</t>
   </si>
   <si>
-    <t>2019-07-18T06:35:28.084Z</t>
+    <t>2019-07-18T08:26:43.464Z</t>
   </si>
   <si>
     <t>merchantcode</t>
@@ -301,40 +307,397 @@
     <t>jpcontrib</t>
   </si>
   <si>
-    <t>5d1f088832fbc3000145a157-483</t>
-  </si>
-  <si>
-    <t>db107508-cf93-4de4-8e8a-7f6be9d72b51</t>
-  </si>
-  <si>
-    <t>[[symbols:[[symbol:PIC1], [symbol:N], [symbol:J]]], [symbols:[[symbol:PIC1], [symbol:A], [symbol:J]]], [symbols:[[symbol:T], [symbol:K], [symbol:PIC4]]], [symbols:[[symbol:K], [symbol:WILD], [symbol:N]]], [symbols:[[symbol:PIC3], [symbol:J], [symbol:N]]]]</t>
-  </si>
-  <si>
-    <t>2019/07/18 06:35:33</t>
-  </si>
-  <si>
-    <t>4672840</t>
-  </si>
-  <si>
-    <t>2019-07-18T06:35:33.932Z</t>
-  </si>
-  <si>
-    <t>5d1f088832fbc3000145a157-484</t>
-  </si>
-  <si>
-    <t>c9160cd9-c88b-4938-874e-07a5ed7b6b8f</t>
-  </si>
-  <si>
-    <t>[[symbols:[[symbol:T], [symbol:PIC2], [symbol:Q]]], [symbols:[[symbol:A], [symbol:N], [symbol:PIC3]]], [symbols:[[symbol:N], [symbol:PIC4], [symbol:Q]]], [symbols:[[symbol:PIC3], [symbol:N], [symbol:T]]], [symbols:[[symbol:PIC1], [symbol:K], [symbol:PIC2]]]]</t>
-  </si>
-  <si>
-    <t>2019/07/18 06:35:39</t>
-  </si>
-  <si>
-    <t>4671840</t>
-  </si>
-  <si>
-    <t>2019-07-18T06:35:39.408Z</t>
+    <t>5d1f088832fbc3000145a157-546</t>
+  </si>
+  <si>
+    <t>a4b5a066-1a3a-4698-9ee9-f12924415a3f</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:PIC1], [symbol:K], [symbol:N]]], [symbols:[[symbol:N], [symbol:PIC3], [symbol:J]]], [symbols:[[symbol:PIC3], [symbol:Q], [symbol:K]]], [symbols:[[symbol:A], [symbol:J], [symbol:PIC2]]], [symbols:[[symbol:PIC4], [symbol:K], [symbol:T]]]]</t>
+  </si>
+  <si>
+    <t>2019/07/18 08:26:47</t>
+  </si>
+  <si>
+    <t>4635440</t>
+  </si>
+  <si>
+    <t>2019-07-18T08:26:47.524Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-547</t>
+  </si>
+  <si>
+    <t>a83d075a-d21d-4c2b-929f-d45d88a701bb</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:N], [symbol:PIC4], [symbol:Q]]], [symbols:[[symbol:J], [symbol:PIC2], [symbol:A]]], [symbols:[[symbol:T], [symbol:PIC3], [symbol:Q]]], [symbols:[[symbol:J], [symbol:K], [symbol:WILD]]], [symbols:[[symbol:Q], [symbol:J], [symbol:PIC3]]]]</t>
+  </si>
+  <si>
+    <t>2019/07/18 08:27:05</t>
+  </si>
+  <si>
+    <t>4634440</t>
+  </si>
+  <si>
+    <t>2019-07-18T08:27:05.711Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-548</t>
+  </si>
+  <si>
+    <t>a7f76ca4-45b5-439e-bbc1-e0b1cb46ad0d</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:Q], [symbol:N], [symbol:T]]], [symbols:[[symbol:PIC3], [symbol:J], [symbol:WILD]]], [symbols:[[symbol:PIC3], [symbol:A], [symbol:PIC4]]], [symbols:[[symbol:PIC1], [symbol:N], [symbol:PIC4]]], [symbols:[[symbol:T], [symbol:N], [symbol:SCATTER]]]]</t>
+  </si>
+  <si>
+    <t>2019/07/18 08:27:13</t>
+  </si>
+  <si>
+    <t>4633440</t>
+  </si>
+  <si>
+    <t>2019-07-18T08:27:13.840Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-549</t>
+  </si>
+  <si>
+    <t>8678c0f6-e14c-49b0-96a3-bde619b4f152</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:N], [symbol:T], [symbol:PIC2]]], [symbols:[[symbol:PIC2], [symbol:K], [symbol:A]]], [symbols:[[symbol:A], [symbol:Q], [symbol:PIC2]]], [symbols:[[symbol:K], [symbol:PIC2], [symbol:N]]], [symbols:[[symbol:N], [symbol:PIC3], [symbol:K]]]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[2], [0], [2], [1], [*]], line_number:0, of_kind:4, prize:10000.0, right_to_left:false, symbol:PIC2, wild_win:false]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[2], [0], [2], [1], [*]], line_number:1, of_kind:4, prize:10000, reel_set:0, right_to_left:false, symbol:PIC2, wild_win:false]]</t>
+  </si>
+  <si>
+    <t>2019/07/18 08:27:18</t>
+  </si>
+  <si>
+    <t>4642440</t>
+  </si>
+  <si>
+    <t>2019-07-18T08:27:18.740Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-550</t>
+  </si>
+  <si>
+    <t>7165a46f-e615-4625-9930-ebd70c3aff89</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:T], [symbol:PIC2], [symbol:A]]], [symbols:[[symbol:SCATTER], [symbol:K], [symbol:T]]], [symbols:[[symbol:T], [symbol:SCATTER], [symbol:N]]], [symbols:[[symbol:T], [symbol:PIC2], [symbol:J]]], [symbols:[[symbol:PIC2], [symbol:A], [symbol:Q]]]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[0], [2], [0], [0], [*]], line_number:0, of_kind:4, prize:1000.0, right_to_left:false, symbol:T, wild_win:false]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[0], [2], [0], [0], [*]], line_number:1, of_kind:4, prize:1000, reel_set:0, right_to_left:false, symbol:T, wild_win:false]]</t>
+  </si>
+  <si>
+    <t>2019/07/18 08:27:28</t>
+  </si>
+  <si>
+    <t>2019-07-18T08:27:28.900Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-551</t>
+  </si>
+  <si>
+    <t>351acb3a-ca2a-4fc7-b40f-c373ec4bfc75</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:Q], [symbol:T], [symbol:PIC4]]], [symbols:[[symbol:N], [symbol:PIC4], [symbol:J]]], [symbols:[[symbol:PIC4], [symbol:T], [symbol:J]]], [symbols:[[symbol:PIC4], [symbol:K], [symbol:PIC2]]], [symbols:[[symbol:T], [symbol:Q], [symbol:A]]]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[2], [1], [0], [0], [*]], line_number:0, of_kind:4, prize:3000.0, right_to_left:false, symbol:PIC4, wild_win:false]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[2], [1], [0], [0], [*]], line_number:1, of_kind:4, prize:3000, reel_set:0, right_to_left:false, symbol:PIC4, wild_win:false]]</t>
+  </si>
+  <si>
+    <t>2019/07/18 08:27:36</t>
+  </si>
+  <si>
+    <t>4644440</t>
+  </si>
+  <si>
+    <t>2019-07-18T08:27:36.949Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-552</t>
+  </si>
+  <si>
+    <t>87f0a70a-a09f-4500-a225-69151dd3f25b</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:N], [symbol:Q], [symbol:T]]], [symbols:[[symbol:N], [symbol:PIC1], [symbol:A]]], [symbols:[[symbol:K], [symbol:PIC4], [symbol:T]]], [symbols:[[symbol:N], [symbol:PIC3], [symbol:J]]], [symbols:[[symbol:PIC2], [symbol:A], [symbol:Q]]]]</t>
+  </si>
+  <si>
+    <t>2019/07/18 08:27:45</t>
+  </si>
+  <si>
+    <t>4643440</t>
+  </si>
+  <si>
+    <t>2019-07-18T08:27:45.207Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-553</t>
+  </si>
+  <si>
+    <t>9c3059be-e18a-4027-9f6b-78684e030132</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:N], [symbol:Q], [symbol:PIC1]]], [symbols:[[symbol:N], [symbol:A], [symbol:SCATTER]]], [symbols:[[symbol:K], [symbol:PIC4], [symbol:T]]], [symbols:[[symbol:PIC4], [symbol:N], [symbol:PIC2]]], [symbols:[[symbol:A], [symbol:T], [symbol:WILD]]]]</t>
+  </si>
+  <si>
+    <t>2019/07/18 08:27:53</t>
+  </si>
+  <si>
+    <t>2019-07-18T08:27:53.374Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-554</t>
+  </si>
+  <si>
+    <t>8e471d63-0a9f-4a3f-9be8-55d8065a0497</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:PIC3], [symbol:T], [symbol:J]]], [symbols:[[symbol:N], [symbol:PIC1], [symbol:A]]], [symbols:[[symbol:PIC4], [symbol:K], [symbol:A]]], [symbols:[[symbol:PIC3], [symbol:A], [symbol:J]]], [symbols:[[symbol:N], [symbol:SCATTER], [symbol:J]]]]</t>
+  </si>
+  <si>
+    <t>2019/07/18 08:28:01</t>
+  </si>
+  <si>
+    <t>4641440</t>
+  </si>
+  <si>
+    <t>2019-07-18T08:28:01.534Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-555</t>
+  </si>
+  <si>
+    <t>738aab0a-83c4-4c3e-9a64-6355177b8ba5</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:Q], [symbol:T], [symbol:A]]], [symbols:[[symbol:PIC3], [symbol:J], [symbol:WILD]]], [symbols:[[symbol:Q], [symbol:N], [symbol:PIC1]]], [symbols:[[symbol:K], [symbol:PIC4], [symbol:J]]], [symbols:[[symbol:T], [symbol:Q], [symbol:A]]]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[0], [2], [0], [*], [*]], line_number:0, of_kind:3, prize:200.0, right_to_left:false, symbol:Q, wild_win:true]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[0], [2], [0], [*], [*]], line_number:1, of_kind:3, prize:200, reel_set:0, right_to_left:false, symbol:Q, wild_win:true]]</t>
+  </si>
+  <si>
+    <t>2019/07/18 08:28:10</t>
+  </si>
+  <si>
+    <t>4640640</t>
+  </si>
+  <si>
+    <t>2019-07-18T08:28:10.028Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-556</t>
+  </si>
+  <si>
+    <t>eaa2d50b-9153-4c45-b697-ba2023a4361a</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:SCATTER], [symbol:T], [symbol:N]]], [symbols:[[symbol:A], [symbol:K], [symbol:PIC4]]], [symbols:[[symbol:T], [symbol:PIC2], [symbol:WILD]]], [symbols:[[symbol:N], [symbol:Q], [symbol:SCATTER]]], [symbols:[[symbol:PIC3], [symbol:J], [symbol:N]]]]</t>
+  </si>
+  <si>
+    <t>2019/07/18 08:28:17</t>
+  </si>
+  <si>
+    <t>4639640</t>
+  </si>
+  <si>
+    <t>2019-07-18T08:28:17.378Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-557</t>
+  </si>
+  <si>
+    <t>7be6d999-2502-46be-a676-0d01f4baee2d</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:J], [symbol:T], [symbol:PIC2]]], [symbols:[[symbol:A], [symbol:PIC3], [symbol:J]]], [symbols:[[symbol:A], [symbol:Q], [symbol:PIC2]]], [symbols:[[symbol:PIC2], [symbol:J], [symbol:PIC4]]], [symbols:[[symbol:PIC4], [symbol:K], [symbol:T]]]]</t>
+  </si>
+  <si>
+    <t>2019/07/18 08:28:28</t>
+  </si>
+  <si>
+    <t>4638640</t>
+  </si>
+  <si>
+    <t>2019-07-18T08:28:28.265Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-558</t>
+  </si>
+  <si>
+    <t>1af48761-118e-436f-923e-a4a1ae736e81</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:K], [symbol:Q], [symbol:PIC3]]], [symbols:[[symbol:Q], [symbol:N], [symbol:A]]], [symbols:[[symbol:N], [symbol:PIC1], [symbol:Q]]], [symbols:[[symbol:K], [symbol:PIC2], [symbol:N]]], [symbols:[[symbol:PIC1], [symbol:K], [symbol:PIC2]]]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[1], [0], [2], [*], [*]], line_number:0, of_kind:3, prize:200.0, right_to_left:false, symbol:Q, wild_win:false]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[1], [0], [2], [*], [*]], line_number:1, of_kind:3, prize:200, reel_set:0, right_to_left:false, symbol:Q, wild_win:false]]</t>
+  </si>
+  <si>
+    <t>2019/07/18 08:28:36</t>
+  </si>
+  <si>
+    <t>4637840</t>
+  </si>
+  <si>
+    <t>2019-07-18T08:28:36.581Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-559</t>
+  </si>
+  <si>
+    <t>fd478e61-a72d-4265-8375-36a137aaccb0</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:Q], [symbol:T], [symbol:A]]], [symbols:[[symbol:A], [symbol:T], [symbol:PIC1]]], [symbols:[[symbol:PIC1], [symbol:Q], [symbol:PIC2]]], [symbols:[[symbol:K], [symbol:PIC2], [symbol:T]]], [symbols:[[symbol:J], [symbol:PIC4], [symbol:A]]]]</t>
+  </si>
+  <si>
+    <t>2019/07/18 08:28:41</t>
+  </si>
+  <si>
+    <t>4636840</t>
+  </si>
+  <si>
+    <t>2019-07-18T08:28:41.732Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-560</t>
+  </si>
+  <si>
+    <t>f73ff6b9-7842-4939-b3cf-a43fa2d4cd80</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:PIC4], [symbol:J], [symbol:Q]]], [symbols:[[symbol:K], [symbol:PIC1], [symbol:A]]], [symbols:[[symbol:PIC4], [symbol:T], [symbol:J]]], [symbols:[[symbol:PIC2], [symbol:J], [symbol:K]]], [symbols:[[symbol:SCATTER], [symbol:J], [symbol:PIC4]]]]</t>
+  </si>
+  <si>
+    <t>2019/07/18 08:28:48</t>
+  </si>
+  <si>
+    <t>4635840</t>
+  </si>
+  <si>
+    <t>2019-07-18T08:28:48.486Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-561</t>
+  </si>
+  <si>
+    <t>ef852586-32dd-4d3a-8ea0-152aeed3c640</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:T], [symbol:PIC2], [symbol:A]]], [symbols:[[symbol:J], [symbol:K], [symbol:PIC4]]], [symbols:[[symbol:SCATTER], [symbol:N], [symbol:Q]]], [symbols:[[symbol:PIC2], [symbol:K], [symbol:PIC4]]], [symbols:[[symbol:K], [symbol:T], [symbol:PIC1]]]]</t>
+  </si>
+  <si>
+    <t>2019/07/18 08:28:53</t>
+  </si>
+  <si>
+    <t>4634840</t>
+  </si>
+  <si>
+    <t>2019-07-18T08:28:53.831Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-562</t>
+  </si>
+  <si>
+    <t>1e41d430-d50b-4a14-9072-df866366a733</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:J], [symbol:T], [symbol:PIC2]]], [symbols:[[symbol:K], [symbol:PIC2], [symbol:A]]], [symbols:[[symbol:A], [symbol:PIC4], [symbol:Q]]], [symbols:[[symbol:PIC4], [symbol:K], [symbol:PIC2]]], [symbols:[[symbol:T], [symbol:WILD], [symbol:K]]]]</t>
+  </si>
+  <si>
+    <t>2019/07/18 08:28:59</t>
+  </si>
+  <si>
+    <t>4633840</t>
+  </si>
+  <si>
+    <t>2019-07-18T08:28:59.316Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-563</t>
+  </si>
+  <si>
+    <t>b855e392-2563-4d23-86ea-ab77dc689ef5</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:Q], [symbol:PIC3], [symbol:T]]], [symbols:[[symbol:A], [symbol:SCATTER], [symbol:K]]], [symbols:[[symbol:PIC3], [symbol:Q], [symbol:K]]], [symbols:[[symbol:Q], [symbol:N], [symbol:SCATTER]]], [symbols:[[symbol:A], [symbol:Q], [symbol:PIC4]]]]</t>
+  </si>
+  <si>
+    <t>2019/07/18 08:29:04</t>
+  </si>
+  <si>
+    <t>4632840</t>
+  </si>
+  <si>
+    <t>2019-07-18T08:29:04.303Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-564</t>
+  </si>
+  <si>
+    <t>b0e0775b-f41e-4157-8498-dcdf6d7f44bd</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:T], [symbol:PIC2], [symbol:A]]], [symbols:[[symbol:WILD], [symbol:N], [symbol:K]]], [symbols:[[symbol:T], [symbol:PIC3], [symbol:A]]], [symbols:[[symbol:WILD], [symbol:N], [symbol:Q]]], [symbols:[[symbol:T], [symbol:Q], [symbol:A]]]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[0], [0], [0], [0], [0]], line_number:0, of_kind:5, prize:3000.0, right_to_left:false, symbol:T, wild_win:true], [line_config:[[2], [0], [2], [0], [2]], line_number:0, of_kind:5, prize:6000.0, right_to_left:false, symbol:A, wild_win:true]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[0], [0], [0], [0], [0]], line_number:1, of_kind:5, prize:3000, reel_set:0, right_to_left:false, symbol:T, wild_win:true], [line_config:[[2], [0], [2], [0], [2]], line_number:1, of_kind:5, prize:6000, reel_set:0, right_to_left:false, symbol:A, wild_win:true]]</t>
+  </si>
+  <si>
+    <t>2019/07/18 08:29:09</t>
+  </si>
+  <si>
+    <t>4640840</t>
+  </si>
+  <si>
+    <t>2019-07-18T08:29:09.684Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-565</t>
+  </si>
+  <si>
+    <t>8f7752c7-1629-4c1a-98b3-ad92c1cb4867</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:A], [symbol:PIC1], [symbol:N]]], [symbols:[[symbol:PIC3], [symbol:J], [symbol:WILD]]], [symbols:[[symbol:T], [symbol:PIC2], [symbol:WILD]]], [symbols:[[symbol:N], [symbol:T], [symbol:PIC2]]], [symbols:[[symbol:Q], [symbol:A], [symbol:PIC1]]]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[0], [2], [2], [*], [*]], line_number:0, of_kind:3, prize:600.0, right_to_left:false, symbol:A, wild_win:true], [line_config:[[1], [2], [2], [*], [*]], line_number:0, of_kind:3, prize:2000.0, right_to_left:false, symbol:PIC1, wild_win:true], [line_config:[[2], [2], [2], [0], [*]], line_number:0, of_kind:4, prize:1000.0, right_to_left:false, symbol:N, wild_win:true]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[0], [2], [2], [*], [*]], line_number:1, of_kind:3, prize:600, reel_set:0, right_to_left:false, symbol:A, wild_win:true], [line_config:[[1], [2], [2], [*], [*]], line_number:1, of_kind:3, prize:2000, reel_set:0, right_to_left:false, symbol:PIC1, wild_win:true], [line_config:[[2], [2], [2], [0], [*]], line_number:1, of_kind:4, prize:1000, reel_set:0, right_to_left:false, symbol:N, wild_win:true]]</t>
+  </si>
+  <si>
+    <t>2019/07/18 08:29:15</t>
+  </si>
+  <si>
+    <t>2019-07-18T08:29:15.247Z</t>
   </si>
 </sst>
 </file>
@@ -438,52 +801,52 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -491,7 +854,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0000457346E11</v>
+        <v>1.0000453606E11</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -522,20 +885,20 @@
       </c>
       <c r="L2"/>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0</v>
+        <v>4000.0</v>
       </c>
       <c r="Q2"/>
       <c r="R2" t="n">
-        <v>0.0</v>
+        <v>4000.0</v>
       </c>
       <c r="S2" t="n">
         <v>0.0</v>
@@ -546,10 +909,10 @@
         <v>1.0</v>
       </c>
       <c r="W2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y2" t="n">
         <v>1.0</v>
@@ -565,10 +928,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0000457246E11</v>
+        <v>1.0000453506E11</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -589,23 +952,23 @@
         <v>1000.0</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L3"/>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" t="n">
         <v>0.0</v>
@@ -623,10 +986,10 @@
         <v>1.0</v>
       </c>
       <c r="W3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y3" t="n">
         <v>1.0</v>
@@ -642,10 +1005,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0000457146E11</v>
+        <v>1.0000453406E11</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -666,23 +1029,23 @@
         <v>1000.0</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L4"/>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P4" t="n">
         <v>0.0</v>
@@ -700,10 +1063,10 @@
         <v>1.0</v>
       </c>
       <c r="W4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y4" t="n">
         <v>1.0</v>
@@ -716,6 +1079,1392 @@
         <v>1000.0</v>
       </c>
       <c r="AC4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.0000453306E11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q5"/>
+      <c r="R5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA5"/>
+      <c r="AB5" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="AC5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.0000454206E11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="Q6"/>
+      <c r="R6" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA6"/>
+      <c r="AB6" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="AC6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0000454206E11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="Q7"/>
+      <c r="R7" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA7"/>
+      <c r="AB7" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="AC7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.0000454406E11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="Q8"/>
+      <c r="R8" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>34</v>
+      </c>
+      <c r="X8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA8"/>
+      <c r="AB8" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="AC8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0000454306E11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q9"/>
+      <c r="R9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>34</v>
+      </c>
+      <c r="X9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA9"/>
+      <c r="AB9" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="AC9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.0000454206E11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q10"/>
+      <c r="R10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA10"/>
+      <c r="AB10" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="AC10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.0000454106E11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q11"/>
+      <c r="R11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>34</v>
+      </c>
+      <c r="X11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA11"/>
+      <c r="AB11" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="AC11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.0000454026E11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>155</v>
+      </c>
+      <c r="J12" t="s">
+        <v>156</v>
+      </c>
+      <c r="K12" t="s">
+        <v>157</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="Q12"/>
+      <c r="R12" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>34</v>
+      </c>
+      <c r="X12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA12"/>
+      <c r="AB12" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="AC12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.0000453926E11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q13"/>
+      <c r="R13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>34</v>
+      </c>
+      <c r="X13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA13"/>
+      <c r="AB13" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="AC13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.0000453826E11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" t="s">
+        <v>170</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q14"/>
+      <c r="R14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>34</v>
+      </c>
+      <c r="X14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA14"/>
+      <c r="AB14" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="AC14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.0000453746E11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>175</v>
+      </c>
+      <c r="J15" t="s">
+        <v>176</v>
+      </c>
+      <c r="K15" t="s">
+        <v>177</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="Q15"/>
+      <c r="R15" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>34</v>
+      </c>
+      <c r="X15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA15"/>
+      <c r="AB15" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="AC15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.0000453646E11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>183</v>
+      </c>
+      <c r="J16" t="s">
+        <v>184</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q16"/>
+      <c r="R16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>34</v>
+      </c>
+      <c r="X16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA16"/>
+      <c r="AB16" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="AC16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.0000453546E11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" t="s">
+        <v>190</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q17"/>
+      <c r="R17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>34</v>
+      </c>
+      <c r="X17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA17"/>
+      <c r="AB17" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="AC17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.0000453446E11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J18" t="s">
+        <v>196</v>
+      </c>
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q18"/>
+      <c r="R18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>34</v>
+      </c>
+      <c r="X18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA18"/>
+      <c r="AB18" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="AC18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.0000453346E11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>201</v>
+      </c>
+      <c r="J19" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q19"/>
+      <c r="R19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>34</v>
+      </c>
+      <c r="X19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA19"/>
+      <c r="AB19" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="AC19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.0000453246E11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q20"/>
+      <c r="R20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>34</v>
+      </c>
+      <c r="X20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA20"/>
+      <c r="AB20" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="AC20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.0000454046E11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" t="s">
+        <v>214</v>
+      </c>
+      <c r="K21" t="s">
+        <v>215</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" t="n">
+        <v>9000.0</v>
+      </c>
+      <c r="Q21"/>
+      <c r="R21" t="n">
+        <v>9000.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>34</v>
+      </c>
+      <c r="X21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA21"/>
+      <c r="AB21" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="AC21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.0000454306E11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="Q22"/>
+      <c r="R22" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>34</v>
+      </c>
+      <c r="X22" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA22"/>
+      <c r="AB22" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="AC22"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -771,34 +2520,34 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -806,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0000457346E11</v>
+        <v>1.0000453606E11</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -837,20 +2586,20 @@
       </c>
       <c r="L2"/>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0</v>
+        <v>4000.0</v>
       </c>
       <c r="Q2"/>
       <c r="R2" t="n">
-        <v>0.0</v>
+        <v>4000.0</v>
       </c>
       <c r="S2" t="n">
         <v>0.0</v>
@@ -864,10 +2613,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0000457246E11</v>
+        <v>1.0000453506E11</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -888,23 +2637,23 @@
         <v>1000.0</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L3"/>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" t="n">
         <v>0.0</v>
@@ -925,10 +2674,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0000457146E11</v>
+        <v>1.0000453406E11</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -949,23 +2698,23 @@
         <v>1000.0</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L4"/>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P4" t="n">
         <v>0.0</v>
@@ -983,6 +2732,1104 @@
         <v>1.0</v>
       </c>
       <c r="W4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.0000453306E11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q5"/>
+      <c r="R5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.0000454206E11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="Q6"/>
+      <c r="R6" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0000454206E11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="Q7"/>
+      <c r="R7" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.0000454406E11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="Q8"/>
+      <c r="R8" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0000454306E11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q9"/>
+      <c r="R9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.0000454206E11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q10"/>
+      <c r="R10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.0000454106E11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q11"/>
+      <c r="R11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.0000454026E11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>155</v>
+      </c>
+      <c r="J12" t="s">
+        <v>156</v>
+      </c>
+      <c r="K12" t="s">
+        <v>157</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="Q12"/>
+      <c r="R12" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.0000453926E11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q13"/>
+      <c r="R13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.0000453826E11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" t="s">
+        <v>170</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q14"/>
+      <c r="R14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.0000453746E11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>175</v>
+      </c>
+      <c r="J15" t="s">
+        <v>176</v>
+      </c>
+      <c r="K15" t="s">
+        <v>177</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="Q15"/>
+      <c r="R15" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.0000453646E11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>183</v>
+      </c>
+      <c r="J16" t="s">
+        <v>184</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q16"/>
+      <c r="R16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.0000453546E11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" t="s">
+        <v>190</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q17"/>
+      <c r="R17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.0000453446E11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J18" t="s">
+        <v>196</v>
+      </c>
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q18"/>
+      <c r="R18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.0000453346E11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>201</v>
+      </c>
+      <c r="J19" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q19"/>
+      <c r="R19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.0000453246E11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q20"/>
+      <c r="R20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.0000454046E11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" t="s">
+        <v>214</v>
+      </c>
+      <c r="K21" t="s">
+        <v>215</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" t="n">
+        <v>9000.0</v>
+      </c>
+      <c r="Q21"/>
+      <c r="R21" t="n">
+        <v>9000.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.0000454306E11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="Q22"/>
+      <c r="R22" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W22"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1002,37 +3849,37 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s">
         <v>21</v>
@@ -1044,7 +3891,7 @@
         <v>4</v>
       </c>
       <c r="P1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -1055,7 +3902,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
         <v>1000.0</v>
@@ -1064,10 +3911,10 @@
         <v>1000.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>4000.0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.0000457346E11</v>
+        <v>1.0000453606E11</v>
       </c>
       <c r="H2" t="n">
         <v>1.0</v>
@@ -1076,14 +3923,14 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="K2"/>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
         <v>9</v>
@@ -1095,13 +3942,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
         <v>1000.0</v>
@@ -1113,23 +3960,23 @@
         <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0000457246E11</v>
+        <v>1.0000453506E11</v>
       </c>
       <c r="H3" t="n">
         <v>1.0</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K3"/>
       <c r="L3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
         <v>9</v>
@@ -1141,13 +3988,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
         <v>1000.0</v>
@@ -1159,23 +4006,23 @@
         <v>0.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.0000457146E11</v>
+        <v>1.0000453406E11</v>
       </c>
       <c r="H4" t="n">
         <v>1.0</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K4"/>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
         <v>9</v>
@@ -1184,6 +4031,834 @@
         <v>5</v>
       </c>
       <c r="P4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.0000453306E11</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.0000454206E11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.0000454206E11</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.0000454406E11</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.0000454306E11</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.0000454206E11</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.0000454106E11</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.0000454026E11</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>156</v>
+      </c>
+      <c r="J12" t="s">
+        <v>158</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.0000453926E11</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.0000453826E11</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>170</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.0000453746E11</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>176</v>
+      </c>
+      <c r="J15" t="s">
+        <v>178</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.0000453646E11</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>184</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.0000453546E11</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>190</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.0000453446E11</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>196</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.0000453346E11</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>202</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.0000453246E11</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>208</v>
+      </c>
+      <c r="J20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20" t="s">
+        <v>51</v>
+      </c>
+      <c r="M20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9000.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.0000454046E11</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" t="s">
+        <v>216</v>
+      </c>
+      <c r="K21"/>
+      <c r="L21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.0000454306E11</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>222</v>
+      </c>
+      <c r="J22" t="s">
+        <v>224</v>
+      </c>
+      <c r="K22"/>
+      <c r="L22" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1200,7 +4875,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -1209,58 +4884,58 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
@@ -1268,19 +4943,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0000457346E9</v>
+        <v>1.0000453606E9</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G2" t="n">
         <v>10.0</v>
@@ -1292,63 +4967,63 @@
         <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="K2" t="n">
-        <v>-10.0</v>
+        <v>30.0</v>
       </c>
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.563431728084E12</v>
+        <v>1.563438403464E12</v>
       </c>
       <c r="R2" t="n">
-        <v>43714.0</v>
+        <v>44344.0</v>
       </c>
       <c r="S2" t="n">
-        <v>46738.4</v>
+        <v>46364.4</v>
       </c>
       <c r="T2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U2" t="n">
-        <v>43714.0</v>
+        <v>44344.0</v>
       </c>
       <c r="V2" t="n">
-        <v>90452.4</v>
+        <v>90708.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0000457246E9</v>
+        <v>1.0000453506E9</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="n">
         <v>10.0</v>
@@ -1357,7 +5032,7 @@
         <v>10.0</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J3" t="n">
         <v>0.0</v>
@@ -1369,54 +5044,54 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.563431733932E12</v>
+        <v>1.563438407524E12</v>
       </c>
       <c r="R3" t="n">
-        <v>43724.0</v>
+        <v>44354.0</v>
       </c>
       <c r="S3" t="n">
-        <v>46728.4</v>
+        <v>46354.4</v>
       </c>
       <c r="T3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U3" t="n">
-        <v>43724.0</v>
+        <v>44354.0</v>
       </c>
       <c r="V3" t="n">
-        <v>90452.4</v>
+        <v>90708.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0000457146E9</v>
+        <v>1.0000453406E9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G4" t="n">
         <v>10.0</v>
@@ -1425,7 +5100,7 @@
         <v>10.0</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J4" t="n">
         <v>0.0</v>
@@ -1437,34 +5112,1258 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.563438425711E12</v>
+      </c>
+      <c r="R4" t="n">
+        <v>44364.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>46344.4</v>
+      </c>
+      <c r="T4" t="s">
+        <v>106</v>
+      </c>
+      <c r="U4" t="n">
+        <v>44364.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>90708.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.0000453306E9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-10.0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
         <v>66</v>
       </c>
-      <c r="O4" t="s">
+      <c r="N5" t="s">
         <v>68</v>
       </c>
-      <c r="P4" t="s">
+      <c r="O5" t="s">
         <v>70</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.563431739408E12</v>
-      </c>
-      <c r="R4" t="n">
-        <v>43734.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>46718.4</v>
-      </c>
-      <c r="T4" t="s">
-        <v>104</v>
-      </c>
-      <c r="U4" t="n">
-        <v>43734.0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>90452.4</v>
+      <c r="P5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.56343843384E12</v>
+      </c>
+      <c r="R5" t="n">
+        <v>44374.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>46334.4</v>
+      </c>
+      <c r="T5" t="s">
+        <v>112</v>
+      </c>
+      <c r="U5" t="n">
+        <v>44374.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>90708.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.0000454206E9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.56343843874E12</v>
+      </c>
+      <c r="R6" t="n">
+        <v>44384.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>46424.4</v>
+      </c>
+      <c r="T6" t="s">
+        <v>120</v>
+      </c>
+      <c r="U6" t="n">
+        <v>44384.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>90808.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0000454206E9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.5634384489E12</v>
+      </c>
+      <c r="R7" t="n">
+        <v>44394.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>46424.4</v>
+      </c>
+      <c r="T7" t="s">
+        <v>120</v>
+      </c>
+      <c r="U7" t="n">
+        <v>44394.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>90818.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.0000454406E9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.563438456949E12</v>
+      </c>
+      <c r="R8" t="n">
+        <v>44404.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>46444.4</v>
+      </c>
+      <c r="T8" t="s">
+        <v>135</v>
+      </c>
+      <c r="U8" t="n">
+        <v>44404.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>90848.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0000454306E9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-10.0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.563438465207E12</v>
+      </c>
+      <c r="R9" t="n">
+        <v>44414.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>46434.4</v>
+      </c>
+      <c r="T9" t="s">
+        <v>141</v>
+      </c>
+      <c r="U9" t="n">
+        <v>44414.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>90848.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.0000454206E9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-10.0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.563438473374E12</v>
+      </c>
+      <c r="R10" t="n">
+        <v>44424.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>46424.4</v>
+      </c>
+      <c r="T10" t="s">
+        <v>120</v>
+      </c>
+      <c r="U10" t="n">
+        <v>44424.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>90848.4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.0000454106E9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-10.0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.563438481533E12</v>
+      </c>
+      <c r="R11" t="n">
+        <v>44434.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>46414.4</v>
+      </c>
+      <c r="T11" t="s">
+        <v>152</v>
+      </c>
+      <c r="U11" t="n">
+        <v>44434.0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>90848.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.0000454026E9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>155</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-8.0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.563438490028E12</v>
+      </c>
+      <c r="R12" t="n">
+        <v>44444.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>46406.4</v>
+      </c>
+      <c r="T12" t="s">
+        <v>160</v>
+      </c>
+      <c r="U12" t="n">
+        <v>44444.0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>90850.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.0000453926E9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-10.0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.563438497378E12</v>
+      </c>
+      <c r="R13" t="n">
+        <v>44454.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>46396.4</v>
+      </c>
+      <c r="T13" t="s">
+        <v>166</v>
+      </c>
+      <c r="U13" t="n">
+        <v>44454.0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>90850.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.0000453826E9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-10.0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.563438508265E12</v>
+      </c>
+      <c r="R14" t="n">
+        <v>44464.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>46386.4</v>
+      </c>
+      <c r="T14" t="s">
+        <v>172</v>
+      </c>
+      <c r="U14" t="n">
+        <v>44464.0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>90850.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.0000453746E9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>175</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-8.0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.563438516581E12</v>
+      </c>
+      <c r="R15" t="n">
+        <v>44474.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>46378.4</v>
+      </c>
+      <c r="T15" t="s">
+        <v>180</v>
+      </c>
+      <c r="U15" t="n">
+        <v>44474.0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>90852.4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.0000453646E9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>183</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-10.0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.563438521732E12</v>
+      </c>
+      <c r="R16" t="n">
+        <v>44484.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>46368.4</v>
+      </c>
+      <c r="T16" t="s">
+        <v>186</v>
+      </c>
+      <c r="U16" t="n">
+        <v>44484.0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>90852.4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.0000453546E9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-10.0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.563438528486E12</v>
+      </c>
+      <c r="R17" t="n">
+        <v>44494.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>46358.4</v>
+      </c>
+      <c r="T17" t="s">
+        <v>192</v>
+      </c>
+      <c r="U17" t="n">
+        <v>44494.0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>90852.4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.0000453446E9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-10.0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.563438533831E12</v>
+      </c>
+      <c r="R18" t="n">
+        <v>44504.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>46348.4</v>
+      </c>
+      <c r="T18" t="s">
+        <v>198</v>
+      </c>
+      <c r="U18" t="n">
+        <v>44504.0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>90852.4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.0000453346E9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>201</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-10.0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.563438539316E12</v>
+      </c>
+      <c r="R19" t="n">
+        <v>44514.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>46338.4</v>
+      </c>
+      <c r="T19" t="s">
+        <v>204</v>
+      </c>
+      <c r="U19" t="n">
+        <v>44514.0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>90852.4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.0000453246E9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-10.0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" t="s">
+        <v>68</v>
+      </c>
+      <c r="O20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.563438544303E12</v>
+      </c>
+      <c r="R20" t="n">
+        <v>44524.0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>46328.4</v>
+      </c>
+      <c r="T20" t="s">
+        <v>210</v>
+      </c>
+      <c r="U20" t="n">
+        <v>44524.0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>90852.4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.0000454046E9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" t="s">
+        <v>68</v>
+      </c>
+      <c r="O21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.563438549684E12</v>
+      </c>
+      <c r="R21" t="n">
+        <v>44534.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>46408.4</v>
+      </c>
+      <c r="T21" t="s">
+        <v>218</v>
+      </c>
+      <c r="U21" t="n">
+        <v>44534.0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>90942.4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.0000454306E9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>66</v>
+      </c>
+      <c r="N22" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.563438555247E12</v>
+      </c>
+      <c r="R22" t="n">
+        <v>44544.0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>46434.4</v>
+      </c>
+      <c r="T22" t="s">
+        <v>141</v>
+      </c>
+      <c r="U22" t="n">
+        <v>44544.0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>90978.4</v>
       </c>
     </row>
   </sheetData>
@@ -1482,28 +6381,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
@@ -1512,40 +6411,40 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M1" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R1" t="s">
         <v>1</v>
       </c>
       <c r="S1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="T1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2"/>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="n">
@@ -1555,13 +6454,13 @@
         <v>1000.0</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -1573,22 +6472,22 @@
         <v>1000.0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>4000.0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.0000457346E11</v>
+        <v>1.0000453606E11</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O2" t="s">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R2" t="s">
         <v>2</v>
@@ -1601,7 +6500,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="n">
@@ -1611,16 +6510,16 @@
         <v>1000.0</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
@@ -1632,22 +6531,22 @@
         <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.0000457246E11</v>
+        <v>1.0000453506E11</v>
       </c>
       <c r="N3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O3" t="s">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S3"/>
       <c r="T3" t="n">
@@ -1657,7 +6556,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="n">
@@ -1667,16 +6566,16 @@
         <v>1000.0</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J4" t="s">
         <v>5</v>
@@ -1688,25 +6587,1033 @@
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.0000457146E11</v>
+        <v>1.0000453406E11</v>
       </c>
       <c r="N4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O4" t="s">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="S4"/>
       <c r="T4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.0000453306E11</v>
+      </c>
+      <c r="N5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>93</v>
+      </c>
+      <c r="R5" t="s">
+        <v>108</v>
+      </c>
+      <c r="S5"/>
+      <c r="T5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6"/>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.0000454206E11</v>
+      </c>
+      <c r="N6" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" t="s">
+        <v>114</v>
+      </c>
+      <c r="S6"/>
+      <c r="T6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7"/>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.0000454206E11</v>
+      </c>
+      <c r="N7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>93</v>
+      </c>
+      <c r="R7" t="s">
+        <v>122</v>
+      </c>
+      <c r="S7"/>
+      <c r="T7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8"/>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.0000454406E11</v>
+      </c>
+      <c r="N8" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>93</v>
+      </c>
+      <c r="R8" t="s">
+        <v>129</v>
+      </c>
+      <c r="S8"/>
+      <c r="T8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9"/>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.0000454306E11</v>
+      </c>
+      <c r="N9" t="s">
+        <v>142</v>
+      </c>
+      <c r="O9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>93</v>
+      </c>
+      <c r="R9" t="s">
+        <v>137</v>
+      </c>
+      <c r="S9"/>
+      <c r="T9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10"/>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.0000454206E11</v>
+      </c>
+      <c r="N10" t="s">
+        <v>147</v>
+      </c>
+      <c r="O10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>93</v>
+      </c>
+      <c r="R10" t="s">
+        <v>143</v>
+      </c>
+      <c r="S10"/>
+      <c r="T10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.0000454106E11</v>
+      </c>
+      <c r="N11" t="s">
+        <v>153</v>
+      </c>
+      <c r="O11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>93</v>
+      </c>
+      <c r="R11" t="s">
+        <v>148</v>
+      </c>
+      <c r="S11"/>
+      <c r="T11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
+        <v>155</v>
+      </c>
+      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.0000454026E11</v>
+      </c>
+      <c r="N12" t="s">
+        <v>161</v>
+      </c>
+      <c r="O12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>93</v>
+      </c>
+      <c r="R12" t="s">
+        <v>154</v>
+      </c>
+      <c r="S12"/>
+      <c r="T12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.0000453926E11</v>
+      </c>
+      <c r="N13" t="s">
+        <v>167</v>
+      </c>
+      <c r="O13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>93</v>
+      </c>
+      <c r="R13" t="s">
+        <v>162</v>
+      </c>
+      <c r="S13"/>
+      <c r="T13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14"/>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.0000453826E11</v>
+      </c>
+      <c r="N14" t="s">
+        <v>173</v>
+      </c>
+      <c r="O14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>93</v>
+      </c>
+      <c r="R14" t="s">
+        <v>168</v>
+      </c>
+      <c r="S14"/>
+      <c r="T14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15"/>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" t="s">
+        <v>175</v>
+      </c>
+      <c r="J15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.0000453746E11</v>
+      </c>
+      <c r="N15" t="s">
+        <v>181</v>
+      </c>
+      <c r="O15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>93</v>
+      </c>
+      <c r="R15" t="s">
+        <v>174</v>
+      </c>
+      <c r="S15"/>
+      <c r="T15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16"/>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" t="s">
+        <v>183</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.0000453646E11</v>
+      </c>
+      <c r="N16" t="s">
+        <v>187</v>
+      </c>
+      <c r="O16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>93</v>
+      </c>
+      <c r="R16" t="s">
+        <v>182</v>
+      </c>
+      <c r="S16"/>
+      <c r="T16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.0000453546E11</v>
+      </c>
+      <c r="N17" t="s">
+        <v>193</v>
+      </c>
+      <c r="O17" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>93</v>
+      </c>
+      <c r="R17" t="s">
+        <v>188</v>
+      </c>
+      <c r="S17"/>
+      <c r="T17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18"/>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.0000453446E11</v>
+      </c>
+      <c r="N18" t="s">
+        <v>199</v>
+      </c>
+      <c r="O18" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>93</v>
+      </c>
+      <c r="R18" t="s">
+        <v>194</v>
+      </c>
+      <c r="S18"/>
+      <c r="T18" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19"/>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" t="s">
+        <v>201</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.0000453346E11</v>
+      </c>
+      <c r="N19" t="s">
+        <v>205</v>
+      </c>
+      <c r="O19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>93</v>
+      </c>
+      <c r="R19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S19"/>
+      <c r="T19" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20"/>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.0000453246E11</v>
+      </c>
+      <c r="N20" t="s">
+        <v>211</v>
+      </c>
+      <c r="O20" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>93</v>
+      </c>
+      <c r="R20" t="s">
+        <v>206</v>
+      </c>
+      <c r="S20"/>
+      <c r="T20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21"/>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>9000.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.0000454046E11</v>
+      </c>
+      <c r="N21" t="s">
+        <v>219</v>
+      </c>
+      <c r="O21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>93</v>
+      </c>
+      <c r="R21" t="s">
+        <v>212</v>
+      </c>
+      <c r="S21"/>
+      <c r="T21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22"/>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.0000454306E11</v>
+      </c>
+      <c r="N22" t="s">
+        <v>226</v>
+      </c>
+      <c r="O22" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>93</v>
+      </c>
+      <c r="R22" t="s">
+        <v>220</v>
+      </c>
+      <c r="S22"/>
+      <c r="T22" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/Data Files/Login and Spin.xlsx
+++ b/Data Files/Login and Spin.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="224">
   <si>
     <t/>
   </si>
@@ -25,7 +25,7 @@
     <t>round_id</t>
   </si>
   <si>
-    <t>5d1f088832fbc3000145a157-545</t>
+    <t>5d1f088832fbc3000145a157-581</t>
   </si>
   <si>
     <t>balance</t>
@@ -64,19 +64,19 @@
     <t>causality</t>
   </si>
   <si>
-    <t>8a6cb248-6153-4541-95bd-be4f176c99a2</t>
+    <t>b70993f6-2f89-4d09-9338-f0a0182874f6</t>
   </si>
   <si>
     <t>reels</t>
   </si>
   <si>
-    <t>[[symbols:[[symbol:Q], [symbol:PIC1], [symbol:K]]], [symbols:[[symbol:PIC1], [symbol:A], [symbol:K]]], [symbols:[[symbol:T], [symbol:J], [symbol:WILD]]], [symbols:[[symbol:J], [symbol:PIC2], [symbol:K]]], [symbols:[[symbol:PIC3], [symbol:J], [symbol:N]]]]</t>
+    <t>[[symbols:[[symbol:PIC3], [symbol:Q], [symbol:T]]], [symbols:[[symbol:K], [symbol:A], [symbol:PIC3]]], [symbols:[[symbol:PIC4], [symbol:J], [symbol:T]]], [symbols:[[symbol:PIC2], [symbol:K], [symbol:PIC4]]], [symbols:[[symbol:WILD], [symbol:K], [symbol:N]]]]</t>
   </si>
   <si>
     <t>reel_wins</t>
   </si>
   <si>
-    <t>[[line_config:[[1], [0], [2], [*], [*]], line_number:0, of_kind:3, prize:2000.0, right_to_left:false, symbol:PIC1, wild_win:true], [line_config:[[2], [2], [2], [2], [*]], line_number:0, of_kind:4, prize:2000.0, right_to_left:false, symbol:K, wild_win:true]]</t>
+    <t>[]</t>
   </si>
   <si>
     <t>features</t>
@@ -85,16 +85,13 @@
     <t>features_triggered</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>scatter_win</t>
   </si>
   <si>
     <t>engagements</t>
   </si>
   <si>
-    <t>[GENPLUS]</t>
+    <t>[GENPLUS, NOTIFICATION_CENTER]</t>
   </si>
   <si>
     <t>win_amount</t>
@@ -151,7 +148,7 @@
     <t>transaction_time</t>
   </si>
   <si>
-    <t>2019-07-18</t>
+    <t>2019-08-07</t>
   </si>
   <si>
     <t>total_bet</t>
@@ -166,9 +163,6 @@
     <t>reels_wins</t>
   </si>
   <si>
-    <t>[[line_config:[[1], [0], [2], [*], [*]], line_number:1, of_kind:3, prize:2000, reel_set:0, right_to_left:false, symbol:PIC1, wild_win:true], [line_config:[[2], [2], [2], [2], [*]], line_number:1, of_kind:4, prize:2000, reel_set:0, right_to_left:false, symbol:K, wild_win:true]]</t>
-  </si>
-  <si>
     <t>transaction_type</t>
   </si>
   <si>
@@ -184,7 +178,7 @@
     <t>txDate</t>
   </si>
   <si>
-    <t>2019/07/18 08:26:43</t>
+    <t>2019/08/07 05:47:25</t>
   </si>
   <si>
     <t>playerId</t>
@@ -250,7 +244,7 @@
     <t>totalNum</t>
   </si>
   <si>
-    <t>4636440</t>
+    <t>-1000</t>
   </si>
   <si>
     <t>totalBetValue</t>
@@ -289,7 +283,7 @@
     <t>titmestamp</t>
   </si>
   <si>
-    <t>2019-07-18T08:26:43.464Z</t>
+    <t>2019-08-07T05:47:25.186Z</t>
   </si>
   <si>
     <t>merchantcode</t>
@@ -307,397 +301,394 @@
     <t>jpcontrib</t>
   </si>
   <si>
-    <t>5d1f088832fbc3000145a157-546</t>
-  </si>
-  <si>
-    <t>a4b5a066-1a3a-4698-9ee9-f12924415a3f</t>
-  </si>
-  <si>
-    <t>[[symbols:[[symbol:PIC1], [symbol:K], [symbol:N]]], [symbols:[[symbol:N], [symbol:PIC3], [symbol:J]]], [symbols:[[symbol:PIC3], [symbol:Q], [symbol:K]]], [symbols:[[symbol:A], [symbol:J], [symbol:PIC2]]], [symbols:[[symbol:PIC4], [symbol:K], [symbol:T]]]]</t>
-  </si>
-  <si>
-    <t>2019/07/18 08:26:47</t>
-  </si>
-  <si>
-    <t>4635440</t>
-  </si>
-  <si>
-    <t>2019-07-18T08:26:47.524Z</t>
-  </si>
-  <si>
-    <t>5d1f088832fbc3000145a157-547</t>
-  </si>
-  <si>
-    <t>a83d075a-d21d-4c2b-929f-d45d88a701bb</t>
-  </si>
-  <si>
-    <t>[[symbols:[[symbol:N], [symbol:PIC4], [symbol:Q]]], [symbols:[[symbol:J], [symbol:PIC2], [symbol:A]]], [symbols:[[symbol:T], [symbol:PIC3], [symbol:Q]]], [symbols:[[symbol:J], [symbol:K], [symbol:WILD]]], [symbols:[[symbol:Q], [symbol:J], [symbol:PIC3]]]]</t>
-  </si>
-  <si>
-    <t>2019/07/18 08:27:05</t>
-  </si>
-  <si>
-    <t>4634440</t>
-  </si>
-  <si>
-    <t>2019-07-18T08:27:05.711Z</t>
-  </si>
-  <si>
-    <t>5d1f088832fbc3000145a157-548</t>
-  </si>
-  <si>
-    <t>a7f76ca4-45b5-439e-bbc1-e0b1cb46ad0d</t>
-  </si>
-  <si>
-    <t>[[symbols:[[symbol:Q], [symbol:N], [symbol:T]]], [symbols:[[symbol:PIC3], [symbol:J], [symbol:WILD]]], [symbols:[[symbol:PIC3], [symbol:A], [symbol:PIC4]]], [symbols:[[symbol:PIC1], [symbol:N], [symbol:PIC4]]], [symbols:[[symbol:T], [symbol:N], [symbol:SCATTER]]]]</t>
-  </si>
-  <si>
-    <t>2019/07/18 08:27:13</t>
-  </si>
-  <si>
-    <t>4633440</t>
-  </si>
-  <si>
-    <t>2019-07-18T08:27:13.840Z</t>
-  </si>
-  <si>
-    <t>5d1f088832fbc3000145a157-549</t>
-  </si>
-  <si>
-    <t>8678c0f6-e14c-49b0-96a3-bde619b4f152</t>
-  </si>
-  <si>
-    <t>[[symbols:[[symbol:N], [symbol:T], [symbol:PIC2]]], [symbols:[[symbol:PIC2], [symbol:K], [symbol:A]]], [symbols:[[symbol:A], [symbol:Q], [symbol:PIC2]]], [symbols:[[symbol:K], [symbol:PIC2], [symbol:N]]], [symbols:[[symbol:N], [symbol:PIC3], [symbol:K]]]]</t>
-  </si>
-  <si>
-    <t>[[line_config:[[2], [0], [2], [1], [*]], line_number:0, of_kind:4, prize:10000.0, right_to_left:false, symbol:PIC2, wild_win:false]]</t>
-  </si>
-  <si>
-    <t>[[line_config:[[2], [0], [2], [1], [*]], line_number:1, of_kind:4, prize:10000, reel_set:0, right_to_left:false, symbol:PIC2, wild_win:false]]</t>
-  </si>
-  <si>
-    <t>2019/07/18 08:27:18</t>
-  </si>
-  <si>
-    <t>4642440</t>
-  </si>
-  <si>
-    <t>2019-07-18T08:27:18.740Z</t>
-  </si>
-  <si>
-    <t>5d1f088832fbc3000145a157-550</t>
-  </si>
-  <si>
-    <t>7165a46f-e615-4625-9930-ebd70c3aff89</t>
-  </si>
-  <si>
-    <t>[[symbols:[[symbol:T], [symbol:PIC2], [symbol:A]]], [symbols:[[symbol:SCATTER], [symbol:K], [symbol:T]]], [symbols:[[symbol:T], [symbol:SCATTER], [symbol:N]]], [symbols:[[symbol:T], [symbol:PIC2], [symbol:J]]], [symbols:[[symbol:PIC2], [symbol:A], [symbol:Q]]]]</t>
-  </si>
-  <si>
-    <t>[[line_config:[[0], [2], [0], [0], [*]], line_number:0, of_kind:4, prize:1000.0, right_to_left:false, symbol:T, wild_win:false]]</t>
-  </si>
-  <si>
-    <t>[[line_config:[[0], [2], [0], [0], [*]], line_number:1, of_kind:4, prize:1000, reel_set:0, right_to_left:false, symbol:T, wild_win:false]]</t>
-  </si>
-  <si>
-    <t>2019/07/18 08:27:28</t>
-  </si>
-  <si>
-    <t>2019-07-18T08:27:28.900Z</t>
-  </si>
-  <si>
-    <t>5d1f088832fbc3000145a157-551</t>
-  </si>
-  <si>
-    <t>351acb3a-ca2a-4fc7-b40f-c373ec4bfc75</t>
-  </si>
-  <si>
-    <t>[[symbols:[[symbol:Q], [symbol:T], [symbol:PIC4]]], [symbols:[[symbol:N], [symbol:PIC4], [symbol:J]]], [symbols:[[symbol:PIC4], [symbol:T], [symbol:J]]], [symbols:[[symbol:PIC4], [symbol:K], [symbol:PIC2]]], [symbols:[[symbol:T], [symbol:Q], [symbol:A]]]]</t>
-  </si>
-  <si>
-    <t>[[line_config:[[2], [1], [0], [0], [*]], line_number:0, of_kind:4, prize:3000.0, right_to_left:false, symbol:PIC4, wild_win:false]]</t>
-  </si>
-  <si>
-    <t>[[line_config:[[2], [1], [0], [0], [*]], line_number:1, of_kind:4, prize:3000, reel_set:0, right_to_left:false, symbol:PIC4, wild_win:false]]</t>
-  </si>
-  <si>
-    <t>2019/07/18 08:27:36</t>
-  </si>
-  <si>
-    <t>4644440</t>
-  </si>
-  <si>
-    <t>2019-07-18T08:27:36.949Z</t>
-  </si>
-  <si>
-    <t>5d1f088832fbc3000145a157-552</t>
-  </si>
-  <si>
-    <t>87f0a70a-a09f-4500-a225-69151dd3f25b</t>
-  </si>
-  <si>
-    <t>[[symbols:[[symbol:N], [symbol:Q], [symbol:T]]], [symbols:[[symbol:N], [symbol:PIC1], [symbol:A]]], [symbols:[[symbol:K], [symbol:PIC4], [symbol:T]]], [symbols:[[symbol:N], [symbol:PIC3], [symbol:J]]], [symbols:[[symbol:PIC2], [symbol:A], [symbol:Q]]]]</t>
-  </si>
-  <si>
-    <t>2019/07/18 08:27:45</t>
-  </si>
-  <si>
-    <t>4643440</t>
-  </si>
-  <si>
-    <t>2019-07-18T08:27:45.207Z</t>
-  </si>
-  <si>
-    <t>5d1f088832fbc3000145a157-553</t>
-  </si>
-  <si>
-    <t>9c3059be-e18a-4027-9f6b-78684e030132</t>
-  </si>
-  <si>
-    <t>[[symbols:[[symbol:N], [symbol:Q], [symbol:PIC1]]], [symbols:[[symbol:N], [symbol:A], [symbol:SCATTER]]], [symbols:[[symbol:K], [symbol:PIC4], [symbol:T]]], [symbols:[[symbol:PIC4], [symbol:N], [symbol:PIC2]]], [symbols:[[symbol:A], [symbol:T], [symbol:WILD]]]]</t>
-  </si>
-  <si>
-    <t>2019/07/18 08:27:53</t>
-  </si>
-  <si>
-    <t>2019-07-18T08:27:53.374Z</t>
-  </si>
-  <si>
-    <t>5d1f088832fbc3000145a157-554</t>
-  </si>
-  <si>
-    <t>8e471d63-0a9f-4a3f-9be8-55d8065a0497</t>
-  </si>
-  <si>
-    <t>[[symbols:[[symbol:PIC3], [symbol:T], [symbol:J]]], [symbols:[[symbol:N], [symbol:PIC1], [symbol:A]]], [symbols:[[symbol:PIC4], [symbol:K], [symbol:A]]], [symbols:[[symbol:PIC3], [symbol:A], [symbol:J]]], [symbols:[[symbol:N], [symbol:SCATTER], [symbol:J]]]]</t>
-  </si>
-  <si>
-    <t>2019/07/18 08:28:01</t>
-  </si>
-  <si>
-    <t>4641440</t>
-  </si>
-  <si>
-    <t>2019-07-18T08:28:01.534Z</t>
-  </si>
-  <si>
-    <t>5d1f088832fbc3000145a157-555</t>
-  </si>
-  <si>
-    <t>738aab0a-83c4-4c3e-9a64-6355177b8ba5</t>
-  </si>
-  <si>
-    <t>[[symbols:[[symbol:Q], [symbol:T], [symbol:A]]], [symbols:[[symbol:PIC3], [symbol:J], [symbol:WILD]]], [symbols:[[symbol:Q], [symbol:N], [symbol:PIC1]]], [symbols:[[symbol:K], [symbol:PIC4], [symbol:J]]], [symbols:[[symbol:T], [symbol:Q], [symbol:A]]]]</t>
-  </si>
-  <si>
-    <t>[[line_config:[[0], [2], [0], [*], [*]], line_number:0, of_kind:3, prize:200.0, right_to_left:false, symbol:Q, wild_win:true]]</t>
-  </si>
-  <si>
-    <t>[[line_config:[[0], [2], [0], [*], [*]], line_number:1, of_kind:3, prize:200, reel_set:0, right_to_left:false, symbol:Q, wild_win:true]]</t>
-  </si>
-  <si>
-    <t>2019/07/18 08:28:10</t>
-  </si>
-  <si>
-    <t>4640640</t>
-  </si>
-  <si>
-    <t>2019-07-18T08:28:10.028Z</t>
-  </si>
-  <si>
-    <t>5d1f088832fbc3000145a157-556</t>
-  </si>
-  <si>
-    <t>eaa2d50b-9153-4c45-b697-ba2023a4361a</t>
-  </si>
-  <si>
-    <t>[[symbols:[[symbol:SCATTER], [symbol:T], [symbol:N]]], [symbols:[[symbol:A], [symbol:K], [symbol:PIC4]]], [symbols:[[symbol:T], [symbol:PIC2], [symbol:WILD]]], [symbols:[[symbol:N], [symbol:Q], [symbol:SCATTER]]], [symbols:[[symbol:PIC3], [symbol:J], [symbol:N]]]]</t>
-  </si>
-  <si>
-    <t>2019/07/18 08:28:17</t>
-  </si>
-  <si>
-    <t>4639640</t>
-  </si>
-  <si>
-    <t>2019-07-18T08:28:17.378Z</t>
-  </si>
-  <si>
-    <t>5d1f088832fbc3000145a157-557</t>
-  </si>
-  <si>
-    <t>7be6d999-2502-46be-a676-0d01f4baee2d</t>
-  </si>
-  <si>
-    <t>[[symbols:[[symbol:J], [symbol:T], [symbol:PIC2]]], [symbols:[[symbol:A], [symbol:PIC3], [symbol:J]]], [symbols:[[symbol:A], [symbol:Q], [symbol:PIC2]]], [symbols:[[symbol:PIC2], [symbol:J], [symbol:PIC4]]], [symbols:[[symbol:PIC4], [symbol:K], [symbol:T]]]]</t>
-  </si>
-  <si>
-    <t>2019/07/18 08:28:28</t>
-  </si>
-  <si>
-    <t>4638640</t>
-  </si>
-  <si>
-    <t>2019-07-18T08:28:28.265Z</t>
-  </si>
-  <si>
-    <t>5d1f088832fbc3000145a157-558</t>
-  </si>
-  <si>
-    <t>1af48761-118e-436f-923e-a4a1ae736e81</t>
-  </si>
-  <si>
-    <t>[[symbols:[[symbol:K], [symbol:Q], [symbol:PIC3]]], [symbols:[[symbol:Q], [symbol:N], [symbol:A]]], [symbols:[[symbol:N], [symbol:PIC1], [symbol:Q]]], [symbols:[[symbol:K], [symbol:PIC2], [symbol:N]]], [symbols:[[symbol:PIC1], [symbol:K], [symbol:PIC2]]]]</t>
-  </si>
-  <si>
-    <t>[[line_config:[[1], [0], [2], [*], [*]], line_number:0, of_kind:3, prize:200.0, right_to_left:false, symbol:Q, wild_win:false]]</t>
-  </si>
-  <si>
-    <t>[[line_config:[[1], [0], [2], [*], [*]], line_number:1, of_kind:3, prize:200, reel_set:0, right_to_left:false, symbol:Q, wild_win:false]]</t>
-  </si>
-  <si>
-    <t>2019/07/18 08:28:36</t>
-  </si>
-  <si>
-    <t>4637840</t>
-  </si>
-  <si>
-    <t>2019-07-18T08:28:36.581Z</t>
-  </si>
-  <si>
-    <t>5d1f088832fbc3000145a157-559</t>
-  </si>
-  <si>
-    <t>fd478e61-a72d-4265-8375-36a137aaccb0</t>
-  </si>
-  <si>
-    <t>[[symbols:[[symbol:Q], [symbol:T], [symbol:A]]], [symbols:[[symbol:A], [symbol:T], [symbol:PIC1]]], [symbols:[[symbol:PIC1], [symbol:Q], [symbol:PIC2]]], [symbols:[[symbol:K], [symbol:PIC2], [symbol:T]]], [symbols:[[symbol:J], [symbol:PIC4], [symbol:A]]]]</t>
-  </si>
-  <si>
-    <t>2019/07/18 08:28:41</t>
-  </si>
-  <si>
-    <t>4636840</t>
-  </si>
-  <si>
-    <t>2019-07-18T08:28:41.732Z</t>
-  </si>
-  <si>
-    <t>5d1f088832fbc3000145a157-560</t>
-  </si>
-  <si>
-    <t>f73ff6b9-7842-4939-b3cf-a43fa2d4cd80</t>
-  </si>
-  <si>
-    <t>[[symbols:[[symbol:PIC4], [symbol:J], [symbol:Q]]], [symbols:[[symbol:K], [symbol:PIC1], [symbol:A]]], [symbols:[[symbol:PIC4], [symbol:T], [symbol:J]]], [symbols:[[symbol:PIC2], [symbol:J], [symbol:K]]], [symbols:[[symbol:SCATTER], [symbol:J], [symbol:PIC4]]]]</t>
-  </si>
-  <si>
-    <t>2019/07/18 08:28:48</t>
-  </si>
-  <si>
-    <t>4635840</t>
-  </si>
-  <si>
-    <t>2019-07-18T08:28:48.486Z</t>
-  </si>
-  <si>
-    <t>5d1f088832fbc3000145a157-561</t>
-  </si>
-  <si>
-    <t>ef852586-32dd-4d3a-8ea0-152aeed3c640</t>
-  </si>
-  <si>
-    <t>[[symbols:[[symbol:T], [symbol:PIC2], [symbol:A]]], [symbols:[[symbol:J], [symbol:K], [symbol:PIC4]]], [symbols:[[symbol:SCATTER], [symbol:N], [symbol:Q]]], [symbols:[[symbol:PIC2], [symbol:K], [symbol:PIC4]]], [symbols:[[symbol:K], [symbol:T], [symbol:PIC1]]]]</t>
-  </si>
-  <si>
-    <t>2019/07/18 08:28:53</t>
-  </si>
-  <si>
-    <t>4634840</t>
-  </si>
-  <si>
-    <t>2019-07-18T08:28:53.831Z</t>
-  </si>
-  <si>
-    <t>5d1f088832fbc3000145a157-562</t>
-  </si>
-  <si>
-    <t>1e41d430-d50b-4a14-9072-df866366a733</t>
-  </si>
-  <si>
-    <t>[[symbols:[[symbol:J], [symbol:T], [symbol:PIC2]]], [symbols:[[symbol:K], [symbol:PIC2], [symbol:A]]], [symbols:[[symbol:A], [symbol:PIC4], [symbol:Q]]], [symbols:[[symbol:PIC4], [symbol:K], [symbol:PIC2]]], [symbols:[[symbol:T], [symbol:WILD], [symbol:K]]]]</t>
-  </si>
-  <si>
-    <t>2019/07/18 08:28:59</t>
-  </si>
-  <si>
-    <t>4633840</t>
-  </si>
-  <si>
-    <t>2019-07-18T08:28:59.316Z</t>
-  </si>
-  <si>
-    <t>5d1f088832fbc3000145a157-563</t>
-  </si>
-  <si>
-    <t>b855e392-2563-4d23-86ea-ab77dc689ef5</t>
-  </si>
-  <si>
-    <t>[[symbols:[[symbol:Q], [symbol:PIC3], [symbol:T]]], [symbols:[[symbol:A], [symbol:SCATTER], [symbol:K]]], [symbols:[[symbol:PIC3], [symbol:Q], [symbol:K]]], [symbols:[[symbol:Q], [symbol:N], [symbol:SCATTER]]], [symbols:[[symbol:A], [symbol:Q], [symbol:PIC4]]]]</t>
-  </si>
-  <si>
-    <t>2019/07/18 08:29:04</t>
-  </si>
-  <si>
-    <t>4632840</t>
-  </si>
-  <si>
-    <t>2019-07-18T08:29:04.303Z</t>
-  </si>
-  <si>
-    <t>5d1f088832fbc3000145a157-564</t>
-  </si>
-  <si>
-    <t>b0e0775b-f41e-4157-8498-dcdf6d7f44bd</t>
-  </si>
-  <si>
-    <t>[[symbols:[[symbol:T], [symbol:PIC2], [symbol:A]]], [symbols:[[symbol:WILD], [symbol:N], [symbol:K]]], [symbols:[[symbol:T], [symbol:PIC3], [symbol:A]]], [symbols:[[symbol:WILD], [symbol:N], [symbol:Q]]], [symbols:[[symbol:T], [symbol:Q], [symbol:A]]]]</t>
-  </si>
-  <si>
-    <t>[[line_config:[[0], [0], [0], [0], [0]], line_number:0, of_kind:5, prize:3000.0, right_to_left:false, symbol:T, wild_win:true], [line_config:[[2], [0], [2], [0], [2]], line_number:0, of_kind:5, prize:6000.0, right_to_left:false, symbol:A, wild_win:true]]</t>
-  </si>
-  <si>
-    <t>[[line_config:[[0], [0], [0], [0], [0]], line_number:1, of_kind:5, prize:3000, reel_set:0, right_to_left:false, symbol:T, wild_win:true], [line_config:[[2], [0], [2], [0], [2]], line_number:1, of_kind:5, prize:6000, reel_set:0, right_to_left:false, symbol:A, wild_win:true]]</t>
-  </si>
-  <si>
-    <t>2019/07/18 08:29:09</t>
-  </si>
-  <si>
-    <t>4640840</t>
-  </si>
-  <si>
-    <t>2019-07-18T08:29:09.684Z</t>
-  </si>
-  <si>
-    <t>5d1f088832fbc3000145a157-565</t>
-  </si>
-  <si>
-    <t>8f7752c7-1629-4c1a-98b3-ad92c1cb4867</t>
-  </si>
-  <si>
-    <t>[[symbols:[[symbol:A], [symbol:PIC1], [symbol:N]]], [symbols:[[symbol:PIC3], [symbol:J], [symbol:WILD]]], [symbols:[[symbol:T], [symbol:PIC2], [symbol:WILD]]], [symbols:[[symbol:N], [symbol:T], [symbol:PIC2]]], [symbols:[[symbol:Q], [symbol:A], [symbol:PIC1]]]]</t>
-  </si>
-  <si>
-    <t>[[line_config:[[0], [2], [2], [*], [*]], line_number:0, of_kind:3, prize:600.0, right_to_left:false, symbol:A, wild_win:true], [line_config:[[1], [2], [2], [*], [*]], line_number:0, of_kind:3, prize:2000.0, right_to_left:false, symbol:PIC1, wild_win:true], [line_config:[[2], [2], [2], [0], [*]], line_number:0, of_kind:4, prize:1000.0, right_to_left:false, symbol:N, wild_win:true]]</t>
-  </si>
-  <si>
-    <t>[[line_config:[[0], [2], [2], [*], [*]], line_number:1, of_kind:3, prize:600, reel_set:0, right_to_left:false, symbol:A, wild_win:true], [line_config:[[1], [2], [2], [*], [*]], line_number:1, of_kind:3, prize:2000, reel_set:0, right_to_left:false, symbol:PIC1, wild_win:true], [line_config:[[2], [2], [2], [0], [*]], line_number:1, of_kind:4, prize:1000, reel_set:0, right_to_left:false, symbol:N, wild_win:true]]</t>
-  </si>
-  <si>
-    <t>2019/07/18 08:29:15</t>
-  </si>
-  <si>
-    <t>2019-07-18T08:29:15.247Z</t>
+    <t>5d1f088832fbc3000145a157-582</t>
+  </si>
+  <si>
+    <t>fbf068c0-8c85-4e3a-a95c-68351f9b402c</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:A], [symbol:K], [symbol:PIC4]]], [symbols:[[symbol:PIC1], [symbol:A], [symbol:J]]], [symbols:[[symbol:PIC4], [symbol:T], [symbol:PIC3]]], [symbols:[[symbol:PIC4], [symbol:N], [symbol:PIC2]]], [symbols:[[symbol:J], [symbol:T], [symbol:PIC2]]]]</t>
+  </si>
+  <si>
+    <t>2019/08/07 05:47:31</t>
+  </si>
+  <si>
+    <t>-2000</t>
+  </si>
+  <si>
+    <t>2019-08-07T05:47:31.998Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-583</t>
+  </si>
+  <si>
+    <t>1cf626b9-7776-4f81-9644-fa7548d959fd</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:J], [symbol:T], [symbol:PIC2]]], [symbols:[[symbol:PIC2], [symbol:A], [symbol:N]]], [symbols:[[symbol:Q], [symbol:T], [symbol:SCATTER]]], [symbols:[[symbol:K], [symbol:PIC2], [symbol:N]]], [symbols:[[symbol:Q], [symbol:PIC4], [symbol:K]]]]</t>
+  </si>
+  <si>
+    <t>2019/08/07 05:48:26</t>
+  </si>
+  <si>
+    <t>-3000</t>
+  </si>
+  <si>
+    <t>2019-08-07T05:48:26.295Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-584</t>
+  </si>
+  <si>
+    <t>c69eddc5-c8fe-44b1-b361-3885d577519f</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:PIC4], [symbol:Q], [symbol:N]]], [symbols:[[symbol:N], [symbol:PIC1], [symbol:A]]], [symbols:[[symbol:PIC2], [symbol:WILD], [symbol:K]]], [symbols:[[symbol:K], [symbol:PIC2], [symbol:J]]], [symbols:[[symbol:T], [symbol:N], [symbol:PIC3]]]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[2], [0], [1], [*], [*]], line_number:0, of_kind:3, prize:200.0, right_to_left:false, symbol:N, wild_win:true]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[2], [0], [1], [*], [*]], line_number:1, of_kind:3, prize:200.0, right_to_left:false, symbol:N, wild_win:true]]</t>
+  </si>
+  <si>
+    <t>2019/08/07 05:48:39</t>
+  </si>
+  <si>
+    <t>-3800</t>
+  </si>
+  <si>
+    <t>2019-08-07T05:48:39.138Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-585</t>
+  </si>
+  <si>
+    <t>1191dc7f-6818-4b06-b3fa-1eedfe6a700e</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:N], [symbol:PIC4], [symbol:Q]]], [symbols:[[symbol:PIC2], [symbol:A], [symbol:T]]], [symbols:[[symbol:N], [symbol:T], [symbol:PIC2]]], [symbols:[[symbol:Q], [symbol:SCATTER], [symbol:J]]], [symbols:[[symbol:WILD], [symbol:K], [symbol:N]]]]</t>
+  </si>
+  <si>
+    <t>2019/08/07 05:48:44</t>
+  </si>
+  <si>
+    <t>-4800</t>
+  </si>
+  <si>
+    <t>2019-08-07T05:48:44.914Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-586</t>
+  </si>
+  <si>
+    <t>d73c9374-7565-486b-9ae3-ebd6d549e9b1</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:N], [symbol:T], [symbol:PIC4]]], [symbols:[[symbol:J], [symbol:PIC2], [symbol:K]]], [symbols:[[symbol:Q], [symbol:N], [symbol:PIC1]]], [symbols:[[symbol:J], [symbol:K], [symbol:PIC3]]], [symbols:[[symbol:A], [symbol:K], [symbol:SCATTER]]]]</t>
+  </si>
+  <si>
+    <t>2019/08/07 05:48:53</t>
+  </si>
+  <si>
+    <t>-5800</t>
+  </si>
+  <si>
+    <t>2019-08-07T05:48:53.396Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-587</t>
+  </si>
+  <si>
+    <t>7793a0aa-a9d7-4978-bb0e-a6187b01b854</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:Q], [symbol:N], [symbol:T]]], [symbols:[[symbol:K], [symbol:A], [symbol:PIC3]]], [symbols:[[symbol:T], [symbol:SCATTER], [symbol:N]]], [symbols:[[symbol:PIC2], [symbol:J], [symbol:K]]], [symbols:[[symbol:N], [symbol:A], [symbol:PIC4]]]]</t>
+  </si>
+  <si>
+    <t>2019/08/07 05:49:02</t>
+  </si>
+  <si>
+    <t>-6800</t>
+  </si>
+  <si>
+    <t>2019-08-07T05:49:02.870Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-588</t>
+  </si>
+  <si>
+    <t>bf09ee11-ab3b-439f-a90c-1601598ae3fd</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:PIC2], [symbol:K], [symbol:Q]]], [symbols:[[symbol:J], [symbol:WILD], [symbol:N]]], [symbols:[[symbol:Q], [symbol:PIC2], [symbol:K]]], [symbols:[[symbol:PIC1], [symbol:N], [symbol:PIC4]]], [symbols:[[symbol:SCATTER], [symbol:T], [symbol:Q]]]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[0], [1], [1], [*], [*]], line_number:0, of_kind:3, prize:1000.0, right_to_left:false, symbol:PIC2, wild_win:true], [line_config:[[1], [1], [2], [*], [*]], line_number:0, of_kind:3, prize:400.0, right_to_left:false, symbol:K, wild_win:true], [line_config:[[2], [1], [0], [*], [*]], line_number:0, of_kind:3, prize:200.0, right_to_left:false, symbol:Q, wild_win:true]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[0], [1], [1], [*], [*]], line_number:1, of_kind:3, prize:1000.0, right_to_left:false, symbol:PIC2, wild_win:true], [line_config:[[1], [1], [2], [*], [*]], line_number:1, of_kind:3, prize:400.0, right_to_left:false, symbol:K, wild_win:true], [line_config:[[2], [1], [0], [*], [*]], line_number:1, of_kind:3, prize:200.0, right_to_left:false, symbol:Q, wild_win:true]]</t>
+  </si>
+  <si>
+    <t>2019/08/07 05:49:12</t>
+  </si>
+  <si>
+    <t>-6200</t>
+  </si>
+  <si>
+    <t>2019-08-07T05:49:12.062Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-589</t>
+  </si>
+  <si>
+    <t>548f90e0-c419-4373-a32b-0b9b997d6157</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:PIC4], [symbol:Q], [symbol:PIC3]]], [symbols:[[symbol:N], [symbol:A], [symbol:SCATTER]]], [symbols:[[symbol:K], [symbol:PIC4], [symbol:T]]], [symbols:[[symbol:K], [symbol:PIC3], [symbol:N]]], [symbols:[[symbol:Q], [symbol:K], [symbol:N]]]]</t>
+  </si>
+  <si>
+    <t>2019/08/07 05:49:21</t>
+  </si>
+  <si>
+    <t>-7200</t>
+  </si>
+  <si>
+    <t>2019-08-07T05:49:21.930Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-590</t>
+  </si>
+  <si>
+    <t>7f5da7bc-a950-4f82-9c69-ed826b95e79c</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:PIC4], [symbol:J], [symbol:Q]]], [symbols:[[symbol:PIC3], [symbol:J], [symbol:K]]], [symbols:[[symbol:T], [symbol:PIC2], [symbol:J]]], [symbols:[[symbol:PIC1], [symbol:N], [symbol:PIC4]]], [symbols:[[symbol:PIC4], [symbol:Q], [symbol:T]]]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[1], [1], [2], [*], [*]], line_number:0, of_kind:3, prize:200.0, right_to_left:false, symbol:J, wild_win:false]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[1], [1], [2], [*], [*]], line_number:1, of_kind:3, prize:200.0, right_to_left:false, symbol:J, wild_win:false]]</t>
+  </si>
+  <si>
+    <t>2019/08/07 05:49:31</t>
+  </si>
+  <si>
+    <t>-8000</t>
+  </si>
+  <si>
+    <t>2019-08-07T05:49:31.253Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-591</t>
+  </si>
+  <si>
+    <t>06d18133-eca0-4049-a162-91b5a4bbbaa3</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:T], [symbol:PIC2], [symbol:A]]], [symbols:[[symbol:K], [symbol:A], [symbol:PIC3]]], [symbols:[[symbol:T], [symbol:PIC3], [symbol:A]]], [symbols:[[symbol:PIC4], [symbol:J], [symbol:K]]], [symbols:[[symbol:J], [symbol:Q], [symbol:PIC1]]]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[2], [1], [2], [*], [*]], line_number:0, of_kind:3, prize:600.0, right_to_left:false, symbol:A, wild_win:false]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[2], [1], [2], [*], [*]], line_number:1, of_kind:3, prize:600.0, right_to_left:false, symbol:A, wild_win:false]]</t>
+  </si>
+  <si>
+    <t>2019/08/07 05:49:41</t>
+  </si>
+  <si>
+    <t>-8400</t>
+  </si>
+  <si>
+    <t>2019-08-07T05:49:41.578Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-592</t>
+  </si>
+  <si>
+    <t>f729a56d-25a5-446f-8fd9-2256a918ca37</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:Q], [symbol:N], [symbol:T]]], [symbols:[[symbol:Q], [symbol:J], [symbol:PIC4]]], [symbols:[[symbol:T], [symbol:K], [symbol:PIC4]]], [symbols:[[symbol:PIC4], [symbol:J], [symbol:K]]], [symbols:[[symbol:SCATTER], [symbol:T], [symbol:Q]]]]</t>
+  </si>
+  <si>
+    <t>2019/08/07 05:49:54</t>
+  </si>
+  <si>
+    <t>-9400</t>
+  </si>
+  <si>
+    <t>2019-08-07T05:49:54.334Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-593</t>
+  </si>
+  <si>
+    <t>89c59794-a2eb-430c-ab4f-d44b5b5cbb5b</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:SCATTER], [symbol:T], [symbol:N]]], [symbols:[[symbol:K], [symbol:PIC2], [symbol:A]]], [symbols:[[symbol:PIC2], [symbol:WILD], [symbol:K]]], [symbols:[[symbol:T], [symbol:N], [symbol:PIC3]]], [symbols:[[symbol:Q], [symbol:A], [symbol:PIC1]]]]</t>
+  </si>
+  <si>
+    <t>2019/08/07 05:50:04</t>
+  </si>
+  <si>
+    <t>-10400</t>
+  </si>
+  <si>
+    <t>2019-08-07T05:50:04.256Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-594</t>
+  </si>
+  <si>
+    <t>2e9ba0f0-99f9-4b2e-86b4-40c7dc480314</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:Q], [symbol:N], [symbol:T]]], [symbols:[[symbol:PIC1], [symbol:A], [symbol:K]]], [symbols:[[symbol:T], [symbol:SCATTER], [symbol:N]]], [symbols:[[symbol:PIC2], [symbol:J], [symbol:PIC4]]], [symbols:[[symbol:K], [symbol:T], [symbol:PIC1]]]]</t>
+  </si>
+  <si>
+    <t>2019/08/07 05:50:14</t>
+  </si>
+  <si>
+    <t>-11400</t>
+  </si>
+  <si>
+    <t>2019-08-07T05:50:14.300Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-595</t>
+  </si>
+  <si>
+    <t>cf92376d-86f5-4371-80cf-42d7fb07b011</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:N], [symbol:PIC2], [symbol:K]]], [symbols:[[symbol:PIC4], [symbol:J], [symbol:K]]], [symbols:[[symbol:A], [symbol:PIC4], [symbol:Q]]], [symbols:[[symbol:PIC2], [symbol:J], [symbol:Q]]], [symbols:[[symbol:PIC2], [symbol:A], [symbol:Q]]]]</t>
+  </si>
+  <si>
+    <t>2019/08/07 05:50:25</t>
+  </si>
+  <si>
+    <t>-12400</t>
+  </si>
+  <si>
+    <t>2019-08-07T05:50:25.168Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-596</t>
+  </si>
+  <si>
+    <t>7c7a01c8-a9b9-4c67-ace2-4c71c965850a</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:PIC2], [symbol:A], [symbol:N]]], [symbols:[[symbol:J], [symbol:A], [symbol:PIC3]]], [symbols:[[symbol:Q], [symbol:T], [symbol:SCATTER]]], [symbols:[[symbol:K], [symbol:PIC3], [symbol:T]]], [symbols:[[symbol:T], [symbol:WILD], [symbol:K]]]]</t>
+  </si>
+  <si>
+    <t>2019/08/07 05:50:36</t>
+  </si>
+  <si>
+    <t>-13400</t>
+  </si>
+  <si>
+    <t>2019-08-07T05:50:36.226Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-597</t>
+  </si>
+  <si>
+    <t>21d3a8dd-63e7-4119-8e65-def4a9d639d0</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:PIC2], [symbol:A], [symbol:N]]], [symbols:[[symbol:PIC4], [symbol:A], [symbol:J]]], [symbols:[[symbol:Q], [symbol:K], [symbol:PIC2]]], [symbols:[[symbol:J], [symbol:K], [symbol:WILD]]], [symbols:[[symbol:J], [symbol:Q], [symbol:PIC1]]]]</t>
+  </si>
+  <si>
+    <t>2019/08/07 05:50:47</t>
+  </si>
+  <si>
+    <t>-14400</t>
+  </si>
+  <si>
+    <t>2019-08-07T05:50:47.388Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-598</t>
+  </si>
+  <si>
+    <t>c8c40bff-8e13-4470-9909-a02c94759b13</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:Q], [symbol:T], [symbol:A]]], [symbols:[[symbol:PIC3], [symbol:J], [symbol:K]]], [symbols:[[symbol:PIC4], [symbol:Q], [symbol:K]]], [symbols:[[symbol:T], [symbol:PIC2], [symbol:J]]], [symbols:[[symbol:N], [symbol:PIC4], [symbol:Q]]]]</t>
+  </si>
+  <si>
+    <t>2019/08/07 05:50:58</t>
+  </si>
+  <si>
+    <t>-15400</t>
+  </si>
+  <si>
+    <t>2019-08-07T05:50:58.641Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-599</t>
+  </si>
+  <si>
+    <t>c117a6e0-4c29-44e2-ae98-2bab35f87f1e</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:A], [symbol:K], [symbol:PIC4]]], [symbols:[[symbol:SCATTER], [symbol:K], [symbol:T]]], [symbols:[[symbol:SCATTER], [symbol:N], [symbol:Q]]], [symbols:[[symbol:N], [symbol:PIC3], [symbol:J]]], [symbols:[[symbol:A], [symbol:PIC4], [symbol:J]]]]</t>
+  </si>
+  <si>
+    <t>2019/08/07 05:51:10</t>
+  </si>
+  <si>
+    <t>-16400</t>
+  </si>
+  <si>
+    <t>2019-08-07T05:51:10.013Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-600</t>
+  </si>
+  <si>
+    <t>098e611f-887f-4027-b9c3-971251fc361d</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:T], [symbol:PIC2], [symbol:A]]], [symbols:[[symbol:WILD], [symbol:N], [symbol:K]]], [symbols:[[symbol:PIC2], [symbol:T], [symbol:K]]], [symbols:[[symbol:PIC1], [symbol:Q], [symbol:N]]], [symbols:[[symbol:A], [symbol:T], [symbol:Q]]]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[0], [0], [1], [*], [*]], line_number:0, of_kind:3, prize:200.0, right_to_left:false, symbol:T, wild_win:true], [line_config:[[1], [0], [0], [*], [*]], line_number:0, of_kind:3, prize:1000.0, right_to_left:false, symbol:PIC2, wild_win:true]]</t>
+  </si>
+  <si>
+    <t>[[line_config:[[0], [0], [1], [*], [*]], line_number:1, of_kind:3, prize:200.0, right_to_left:false, symbol:T, wild_win:true], [line_config:[[1], [0], [0], [*], [*]], line_number:1, of_kind:3, prize:1000.0, right_to_left:false, symbol:PIC2, wild_win:true]]</t>
+  </si>
+  <si>
+    <t>2019/08/07 05:51:21</t>
+  </si>
+  <si>
+    <t>-16200</t>
+  </si>
+  <si>
+    <t>2019-08-07T05:51:21.543Z</t>
+  </si>
+  <si>
+    <t>5d1f088832fbc3000145a157-601</t>
+  </si>
+  <si>
+    <t>3a826bb8-0984-4728-9e0f-d7a0af055110</t>
+  </si>
+  <si>
+    <t>[[symbols:[[symbol:Q], [symbol:N], [symbol:T]]], [symbols:[[symbol:SCATTER], [symbol:J], [symbol:A]]], [symbols:[[symbol:K], [symbol:PIC1], [symbol:J]]], [symbols:[[symbol:N], [symbol:PIC2], [symbol:J]]], [symbols:[[symbol:T], [symbol:N], [symbol:SCATTER]]]]</t>
+  </si>
+  <si>
+    <t>2019/08/07 05:51:33</t>
+  </si>
+  <si>
+    <t>-17200</t>
+  </si>
+  <si>
+    <t>2019-08-07T05:51:33.395Z</t>
   </si>
 </sst>
 </file>
@@ -801,52 +792,52 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
       <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>28</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>32</v>
       </c>
-      <c r="W1" t="s">
-        <v>33</v>
-      </c>
       <c r="X1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>40</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -854,7 +845,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0000453606E11</v>
+        <v>1.0001619904E11</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -885,20 +876,20 @@
       </c>
       <c r="L2"/>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P2" t="n">
-        <v>4000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q2"/>
       <c r="R2" t="n">
-        <v>4000.0</v>
+        <v>0.0</v>
       </c>
       <c r="S2" t="n">
         <v>0.0</v>
@@ -909,10 +900,10 @@
         <v>1.0</v>
       </c>
       <c r="W2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y2" t="n">
         <v>1.0</v>
@@ -928,10 +919,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0000453506E11</v>
+        <v>1.0001619804E11</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -952,23 +943,23 @@
         <v>1000.0</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L3"/>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P3" t="n">
         <v>0.0</v>
@@ -986,10 +977,10 @@
         <v>1.0</v>
       </c>
       <c r="W3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y3" t="n">
         <v>1.0</v>
@@ -1005,10 +996,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0000453406E11</v>
+        <v>1.0001619704E11</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1029,23 +1020,23 @@
         <v>1000.0</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L4"/>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P4" t="n">
         <v>0.0</v>
@@ -1063,10 +1054,10 @@
         <v>1.0</v>
       </c>
       <c r="W4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y4" t="n">
         <v>1.0</v>
@@ -1082,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" t="n">
-        <v>1.0000453306E11</v>
+        <v>1.0001619624E11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1106,30 +1097,30 @@
         <v>1000.0</v>
       </c>
       <c r="I5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" t="s">
         <v>109</v>
-      </c>
-      <c r="J5" t="s">
-        <v>110</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
       </c>
       <c r="L5"/>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="Q5"/>
       <c r="R5" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="S5" t="n">
         <v>0.0</v>
@@ -1140,10 +1131,10 @@
         <v>1.0</v>
       </c>
       <c r="W5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y5" t="n">
         <v>1.0</v>
@@ -1162,7 +1153,7 @@
         <v>114</v>
       </c>
       <c r="B6" t="n">
-        <v>1.0000454206E11</v>
+        <v>1.0001619524E11</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1189,24 +1180,24 @@
         <v>116</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="L6"/>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
       </c>
       <c r="O6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P6" t="n">
-        <v>10000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q6"/>
       <c r="R6" t="n">
-        <v>10000.0</v>
+        <v>0.0</v>
       </c>
       <c r="S6" t="n">
         <v>0.0</v>
@@ -1217,10 +1208,10 @@
         <v>1.0</v>
       </c>
       <c r="W6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y6" t="n">
         <v>1.0</v>
@@ -1236,10 +1227,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" t="n">
-        <v>1.0000454206E11</v>
+        <v>1.0001619424E11</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1260,30 +1251,30 @@
         <v>1000.0</v>
       </c>
       <c r="I7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K7" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="L7"/>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
       </c>
       <c r="O7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P7" t="n">
-        <v>1000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q7"/>
       <c r="R7" t="n">
-        <v>1000.0</v>
+        <v>0.0</v>
       </c>
       <c r="S7" t="n">
         <v>0.0</v>
@@ -1294,10 +1285,10 @@
         <v>1.0</v>
       </c>
       <c r="W7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y7" t="n">
         <v>1.0</v>
@@ -1313,10 +1304,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B8" t="n">
-        <v>1.0000454406E11</v>
+        <v>1.0001619324E11</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1337,30 +1328,30 @@
         <v>1000.0</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K8" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="L8"/>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P8" t="n">
-        <v>3000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8"/>
       <c r="R8" t="n">
-        <v>3000.0</v>
+        <v>0.0</v>
       </c>
       <c r="S8" t="n">
         <v>0.0</v>
@@ -1371,10 +1362,10 @@
         <v>1.0</v>
       </c>
       <c r="W8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y8" t="n">
         <v>1.0</v>
@@ -1390,10 +1381,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B9" t="n">
-        <v>1.0000454306E11</v>
+        <v>1.0001619384E11</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1414,30 +1405,30 @@
         <v>1000.0</v>
       </c>
       <c r="I9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L9"/>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
       </c>
       <c r="O9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0</v>
+        <v>1600.0</v>
       </c>
       <c r="Q9"/>
       <c r="R9" t="n">
-        <v>0.0</v>
+        <v>1600.0</v>
       </c>
       <c r="S9" t="n">
         <v>0.0</v>
@@ -1448,10 +1439,10 @@
         <v>1.0</v>
       </c>
       <c r="W9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y9" t="n">
         <v>1.0</v>
@@ -1467,10 +1458,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B10" t="n">
-        <v>1.0000454206E11</v>
+        <v>1.0001619284E11</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1491,23 +1482,23 @@
         <v>1000.0</v>
       </c>
       <c r="I10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L10"/>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
       </c>
       <c r="O10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P10" t="n">
         <v>0.0</v>
@@ -1525,10 +1516,10 @@
         <v>1.0</v>
       </c>
       <c r="W10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y10" t="n">
         <v>1.0</v>
@@ -1544,10 +1535,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" t="n">
-        <v>1.0000454106E11</v>
+        <v>1.0001619204E11</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1568,30 +1559,30 @@
         <v>1000.0</v>
       </c>
       <c r="I11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" t="s">
         <v>149</v>
-      </c>
-      <c r="J11" t="s">
-        <v>150</v>
-      </c>
-      <c r="K11" t="s">
-        <v>22</v>
       </c>
       <c r="L11"/>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
       </c>
       <c r="O11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="Q11"/>
       <c r="R11" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="S11" t="n">
         <v>0.0</v>
@@ -1602,10 +1593,10 @@
         <v>1.0</v>
       </c>
       <c r="W11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y11" t="n">
         <v>1.0</v>
@@ -1624,7 +1615,7 @@
         <v>154</v>
       </c>
       <c r="B12" t="n">
-        <v>1.0000454026E11</v>
+        <v>1.0001619164E11</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1655,20 +1646,20 @@
       </c>
       <c r="L12"/>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
       </c>
       <c r="O12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" t="n">
-        <v>200.0</v>
+        <v>600.0</v>
       </c>
       <c r="Q12"/>
       <c r="R12" t="n">
-        <v>200.0</v>
+        <v>600.0</v>
       </c>
       <c r="S12" t="n">
         <v>0.0</v>
@@ -1679,10 +1670,10 @@
         <v>1.0</v>
       </c>
       <c r="W12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y12" t="n">
         <v>1.0</v>
@@ -1701,7 +1692,7 @@
         <v>162</v>
       </c>
       <c r="B13" t="n">
-        <v>1.0000453926E11</v>
+        <v>1.0001619064E11</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1728,17 +1719,17 @@
         <v>164</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L13"/>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N13" t="n">
         <v>0.0</v>
       </c>
       <c r="O13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P13" t="n">
         <v>0.0</v>
@@ -1756,10 +1747,10 @@
         <v>1.0</v>
       </c>
       <c r="W13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y13" t="n">
         <v>1.0</v>
@@ -1778,7 +1769,7 @@
         <v>168</v>
       </c>
       <c r="B14" t="n">
-        <v>1.0000453826E11</v>
+        <v>1.0001618964E11</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1805,17 +1796,17 @@
         <v>170</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L14"/>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
       </c>
       <c r="O14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P14" t="n">
         <v>0.0</v>
@@ -1833,10 +1824,10 @@
         <v>1.0</v>
       </c>
       <c r="W14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y14" t="n">
         <v>1.0</v>
@@ -1855,7 +1846,7 @@
         <v>174</v>
       </c>
       <c r="B15" t="n">
-        <v>1.0000453746E11</v>
+        <v>1.0001618864E11</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1882,24 +1873,24 @@
         <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="L15"/>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
       </c>
       <c r="O15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P15" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q15"/>
       <c r="R15" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="S15" t="n">
         <v>0.0</v>
@@ -1910,10 +1901,10 @@
         <v>1.0</v>
       </c>
       <c r="W15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y15" t="n">
         <v>1.0</v>
@@ -1929,10 +1920,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B16" t="n">
-        <v>1.0000453646E11</v>
+        <v>1.0001618764E11</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1953,23 +1944,23 @@
         <v>1000.0</v>
       </c>
       <c r="I16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L16"/>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
       </c>
       <c r="O16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P16" t="n">
         <v>0.0</v>
@@ -1987,10 +1978,10 @@
         <v>1.0</v>
       </c>
       <c r="W16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y16" t="n">
         <v>1.0</v>
@@ -2006,10 +1997,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B17" t="n">
-        <v>1.0000453546E11</v>
+        <v>1.0001618664E11</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2030,23 +2021,23 @@
         <v>1000.0</v>
       </c>
       <c r="I17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L17"/>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
       </c>
       <c r="O17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P17" t="n">
         <v>0.0</v>
@@ -2064,10 +2055,10 @@
         <v>1.0</v>
       </c>
       <c r="W17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y17" t="n">
         <v>1.0</v>
@@ -2083,10 +2074,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B18" t="n">
-        <v>1.0000453446E11</v>
+        <v>1.0001618564E11</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2107,23 +2098,23 @@
         <v>1000.0</v>
       </c>
       <c r="I18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L18"/>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
       </c>
       <c r="O18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P18" t="n">
         <v>0.0</v>
@@ -2141,10 +2132,10 @@
         <v>1.0</v>
       </c>
       <c r="W18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y18" t="n">
         <v>1.0</v>
@@ -2160,10 +2151,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B19" t="n">
-        <v>1.0000453346E11</v>
+        <v>1.0001618464E11</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2184,23 +2175,23 @@
         <v>1000.0</v>
       </c>
       <c r="I19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L19"/>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
       </c>
       <c r="O19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P19" t="n">
         <v>0.0</v>
@@ -2218,10 +2209,10 @@
         <v>1.0</v>
       </c>
       <c r="W19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y19" t="n">
         <v>1.0</v>
@@ -2237,10 +2228,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B20" t="n">
-        <v>1.0000453246E11</v>
+        <v>1.0001618364E11</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2261,23 +2252,23 @@
         <v>1000.0</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L20"/>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N20" t="n">
         <v>0.0</v>
       </c>
       <c r="O20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P20" t="n">
         <v>0.0</v>
@@ -2295,10 +2286,10 @@
         <v>1.0</v>
       </c>
       <c r="W20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y20" t="n">
         <v>1.0</v>
@@ -2314,10 +2305,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B21" t="n">
-        <v>1.0000454046E11</v>
+        <v>1.0001618384E11</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2338,30 +2329,30 @@
         <v>1000.0</v>
       </c>
       <c r="I21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s">
         <v>213</v>
-      </c>
-      <c r="J21" t="s">
-        <v>214</v>
-      </c>
-      <c r="K21" t="s">
-        <v>215</v>
       </c>
       <c r="L21"/>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N21" t="n">
         <v>0.0</v>
       </c>
       <c r="O21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P21" t="n">
-        <v>9000.0</v>
+        <v>1200.0</v>
       </c>
       <c r="Q21"/>
       <c r="R21" t="n">
-        <v>9000.0</v>
+        <v>1200.0</v>
       </c>
       <c r="S21" t="n">
         <v>0.0</v>
@@ -2372,10 +2363,10 @@
         <v>1.0</v>
       </c>
       <c r="W21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y21" t="n">
         <v>1.0</v>
@@ -2391,10 +2382,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B22" t="n">
-        <v>1.0000454306E11</v>
+        <v>1.0001618284E11</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2415,30 +2406,30 @@
         <v>1000.0</v>
       </c>
       <c r="I22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="L22"/>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
       </c>
       <c r="O22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P22" t="n">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q22"/>
       <c r="R22" t="n">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
       <c r="S22" t="n">
         <v>0.0</v>
@@ -2449,10 +2440,10 @@
         <v>1.0</v>
       </c>
       <c r="W22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y22" t="n">
         <v>1.0</v>
@@ -2520,34 +2511,34 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
       <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>28</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" t="s">
-        <v>32</v>
-      </c>
       <c r="W1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -2555,7 +2546,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0000453606E11</v>
+        <v>1.0001619904E11</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -2586,20 +2577,20 @@
       </c>
       <c r="L2"/>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P2" t="n">
-        <v>4000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q2"/>
       <c r="R2" t="n">
-        <v>4000.0</v>
+        <v>0.0</v>
       </c>
       <c r="S2" t="n">
         <v>0.0</v>
@@ -2613,10 +2604,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0000453506E11</v>
+        <v>1.0001619804E11</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2637,23 +2628,23 @@
         <v>1000.0</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L3"/>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P3" t="n">
         <v>0.0</v>
@@ -2674,10 +2665,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0000453406E11</v>
+        <v>1.0001619704E11</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2698,23 +2689,23 @@
         <v>1000.0</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L4"/>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P4" t="n">
         <v>0.0</v>
@@ -2735,10 +2726,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" t="n">
-        <v>1.0000453306E11</v>
+        <v>1.0001619624E11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2759,30 +2750,30 @@
         <v>1000.0</v>
       </c>
       <c r="I5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" t="s">
         <v>109</v>
-      </c>
-      <c r="J5" t="s">
-        <v>110</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
       </c>
       <c r="L5"/>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="Q5"/>
       <c r="R5" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="S5" t="n">
         <v>0.0</v>
@@ -2799,7 +2790,7 @@
         <v>114</v>
       </c>
       <c r="B6" t="n">
-        <v>1.0000454206E11</v>
+        <v>1.0001619524E11</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2826,24 +2817,24 @@
         <v>116</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="L6"/>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
       </c>
       <c r="O6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P6" t="n">
-        <v>10000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q6"/>
       <c r="R6" t="n">
-        <v>10000.0</v>
+        <v>0.0</v>
       </c>
       <c r="S6" t="n">
         <v>0.0</v>
@@ -2857,10 +2848,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" t="n">
-        <v>1.0000454206E11</v>
+        <v>1.0001619424E11</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2881,30 +2872,30 @@
         <v>1000.0</v>
       </c>
       <c r="I7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K7" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="L7"/>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
       </c>
       <c r="O7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P7" t="n">
-        <v>1000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q7"/>
       <c r="R7" t="n">
-        <v>1000.0</v>
+        <v>0.0</v>
       </c>
       <c r="S7" t="n">
         <v>0.0</v>
@@ -2918,10 +2909,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B8" t="n">
-        <v>1.0000454406E11</v>
+        <v>1.0001619324E11</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2942,30 +2933,30 @@
         <v>1000.0</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K8" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="L8"/>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P8" t="n">
-        <v>3000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8"/>
       <c r="R8" t="n">
-        <v>3000.0</v>
+        <v>0.0</v>
       </c>
       <c r="S8" t="n">
         <v>0.0</v>
@@ -2979,10 +2970,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B9" t="n">
-        <v>1.0000454306E11</v>
+        <v>1.0001619384E11</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3003,30 +2994,30 @@
         <v>1000.0</v>
       </c>
       <c r="I9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L9"/>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
       </c>
       <c r="O9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0</v>
+        <v>1600.0</v>
       </c>
       <c r="Q9"/>
       <c r="R9" t="n">
-        <v>0.0</v>
+        <v>1600.0</v>
       </c>
       <c r="S9" t="n">
         <v>0.0</v>
@@ -3040,10 +3031,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B10" t="n">
-        <v>1.0000454206E11</v>
+        <v>1.0001619284E11</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3064,23 +3055,23 @@
         <v>1000.0</v>
       </c>
       <c r="I10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L10"/>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
       </c>
       <c r="O10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P10" t="n">
         <v>0.0</v>
@@ -3101,10 +3092,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" t="n">
-        <v>1.0000454106E11</v>
+        <v>1.0001619204E11</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -3125,30 +3116,30 @@
         <v>1000.0</v>
       </c>
       <c r="I11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" t="s">
         <v>149</v>
-      </c>
-      <c r="J11" t="s">
-        <v>150</v>
-      </c>
-      <c r="K11" t="s">
-        <v>22</v>
       </c>
       <c r="L11"/>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
       </c>
       <c r="O11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="Q11"/>
       <c r="R11" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="S11" t="n">
         <v>0.0</v>
@@ -3165,7 +3156,7 @@
         <v>154</v>
       </c>
       <c r="B12" t="n">
-        <v>1.0000454026E11</v>
+        <v>1.0001619164E11</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3196,20 +3187,20 @@
       </c>
       <c r="L12"/>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
       </c>
       <c r="O12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" t="n">
-        <v>200.0</v>
+        <v>600.0</v>
       </c>
       <c r="Q12"/>
       <c r="R12" t="n">
-        <v>200.0</v>
+        <v>600.0</v>
       </c>
       <c r="S12" t="n">
         <v>0.0</v>
@@ -3226,7 +3217,7 @@
         <v>162</v>
       </c>
       <c r="B13" t="n">
-        <v>1.0000453926E11</v>
+        <v>1.0001619064E11</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3253,17 +3244,17 @@
         <v>164</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L13"/>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N13" t="n">
         <v>0.0</v>
       </c>
       <c r="O13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P13" t="n">
         <v>0.0</v>
@@ -3287,7 +3278,7 @@
         <v>168</v>
       </c>
       <c r="B14" t="n">
-        <v>1.0000453826E11</v>
+        <v>1.0001618964E11</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3314,17 +3305,17 @@
         <v>170</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L14"/>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
       </c>
       <c r="O14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P14" t="n">
         <v>0.0</v>
@@ -3348,7 +3339,7 @@
         <v>174</v>
       </c>
       <c r="B15" t="n">
-        <v>1.0000453746E11</v>
+        <v>1.0001618864E11</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3375,24 +3366,24 @@
         <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="L15"/>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
       </c>
       <c r="O15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P15" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q15"/>
       <c r="R15" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="S15" t="n">
         <v>0.0</v>
@@ -3406,10 +3397,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B16" t="n">
-        <v>1.0000453646E11</v>
+        <v>1.0001618764E11</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3430,23 +3421,23 @@
         <v>1000.0</v>
       </c>
       <c r="I16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L16"/>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
       </c>
       <c r="O16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P16" t="n">
         <v>0.0</v>
@@ -3467,10 +3458,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B17" t="n">
-        <v>1.0000453546E11</v>
+        <v>1.0001618664E11</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3491,23 +3482,23 @@
         <v>1000.0</v>
       </c>
       <c r="I17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L17"/>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
       </c>
       <c r="O17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P17" t="n">
         <v>0.0</v>
@@ -3528,10 +3519,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B18" t="n">
-        <v>1.0000453446E11</v>
+        <v>1.0001618564E11</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3552,23 +3543,23 @@
         <v>1000.0</v>
       </c>
       <c r="I18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L18"/>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
       </c>
       <c r="O18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P18" t="n">
         <v>0.0</v>
@@ -3589,10 +3580,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B19" t="n">
-        <v>1.0000453346E11</v>
+        <v>1.0001618464E11</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3613,23 +3604,23 @@
         <v>1000.0</v>
       </c>
       <c r="I19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L19"/>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
       </c>
       <c r="O19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P19" t="n">
         <v>0.0</v>
@@ -3650,10 +3641,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B20" t="n">
-        <v>1.0000453246E11</v>
+        <v>1.0001618364E11</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3674,23 +3665,23 @@
         <v>1000.0</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L20"/>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N20" t="n">
         <v>0.0</v>
       </c>
       <c r="O20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P20" t="n">
         <v>0.0</v>
@@ -3711,10 +3702,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B21" t="n">
-        <v>1.0000454046E11</v>
+        <v>1.0001618384E11</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3735,30 +3726,30 @@
         <v>1000.0</v>
       </c>
       <c r="I21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s">
         <v>213</v>
-      </c>
-      <c r="J21" t="s">
-        <v>214</v>
-      </c>
-      <c r="K21" t="s">
-        <v>215</v>
       </c>
       <c r="L21"/>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N21" t="n">
         <v>0.0</v>
       </c>
       <c r="O21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P21" t="n">
-        <v>9000.0</v>
+        <v>1200.0</v>
       </c>
       <c r="Q21"/>
       <c r="R21" t="n">
-        <v>9000.0</v>
+        <v>1200.0</v>
       </c>
       <c r="S21" t="n">
         <v>0.0</v>
@@ -3772,10 +3763,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B22" t="n">
-        <v>1.0000454306E11</v>
+        <v>1.0001618284E11</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3796,30 +3787,30 @@
         <v>1000.0</v>
       </c>
       <c r="I22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="L22"/>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
       </c>
       <c r="O22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P22" t="n">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q22"/>
       <c r="R22" t="n">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
       <c r="S22" t="n">
         <v>0.0</v>
@@ -3849,37 +3840,37 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
       </c>
       <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>48</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>50</v>
       </c>
       <c r="M1" t="s">
         <v>21</v>
@@ -3891,7 +3882,7 @@
         <v>4</v>
       </c>
       <c r="P1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -3902,7 +3893,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
         <v>1000.0</v>
@@ -3911,10 +3902,10 @@
         <v>1000.0</v>
       </c>
       <c r="F2" t="n">
-        <v>4000.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.0000453606E11</v>
+        <v>1.0001619904E11</v>
       </c>
       <c r="H2" t="n">
         <v>1.0</v>
@@ -3923,14 +3914,14 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K2"/>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
         <v>9</v>
@@ -3942,41 +3933,41 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0001619804E11</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I3" t="s">
         <v>96</v>
       </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.0000453506E11</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>98</v>
-      </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K3"/>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N3" t="s">
         <v>9</v>
@@ -3988,41 +3979,41 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.0001619704E11</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I4" t="s">
         <v>102</v>
       </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.0000453406E11</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>104</v>
-      </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K4"/>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N4" t="s">
         <v>9</v>
@@ -4034,41 +4025,41 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.0001619624E11</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I5" t="s">
         <v>108</v>
       </c>
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.0000453306E11</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>110</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
       </c>
       <c r="K5"/>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N5" t="s">
         <v>9</v>
@@ -4086,7 +4077,7 @@
         <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="n">
         <v>1000.0</v>
@@ -4095,10 +4086,10 @@
         <v>1000.0</v>
       </c>
       <c r="F6" t="n">
-        <v>10000.0</v>
+        <v>0.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0000454206E11</v>
+        <v>1.0001619524E11</v>
       </c>
       <c r="H6" t="n">
         <v>1.0</v>
@@ -4107,14 +4098,14 @@
         <v>116</v>
       </c>
       <c r="J6" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N6" t="s">
         <v>9</v>
@@ -4126,41 +4117,41 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.0001619424E11</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I7" t="s">
         <v>122</v>
       </c>
-      <c r="B7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.0000454206E11</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>124</v>
-      </c>
       <c r="J7" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="K7"/>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N7" t="s">
         <v>9</v>
@@ -4172,13 +4163,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" t="n">
         <v>1000.0</v>
@@ -4187,26 +4178,26 @@
         <v>1000.0</v>
       </c>
       <c r="F8" t="n">
-        <v>3000.0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.0000454406E11</v>
+        <v>1.0001619324E11</v>
       </c>
       <c r="H8" t="n">
         <v>1.0</v>
       </c>
       <c r="I8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J8" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="K8"/>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N8" t="s">
         <v>9</v>
@@ -4218,13 +4209,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="n">
         <v>1000.0</v>
@@ -4233,26 +4224,26 @@
         <v>1000.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>1600.0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0000454306E11</v>
+        <v>1.0001619384E11</v>
       </c>
       <c r="H9" t="n">
         <v>1.0</v>
       </c>
       <c r="I9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="K9"/>
       <c r="L9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N9" t="s">
         <v>9</v>
@@ -4264,13 +4255,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" t="n">
         <v>1000.0</v>
@@ -4282,23 +4273,23 @@
         <v>0.0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.0000454206E11</v>
+        <v>1.0001619284E11</v>
       </c>
       <c r="H10" t="n">
         <v>1.0</v>
       </c>
       <c r="I10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K10"/>
       <c r="L10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N10" t="s">
         <v>9</v>
@@ -4310,41 +4301,41 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.0001619204E11</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I11" t="s">
         <v>148</v>
       </c>
-      <c r="B11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.0000454106E11</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>150</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
       </c>
       <c r="K11"/>
       <c r="L11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N11" t="s">
         <v>9</v>
@@ -4362,7 +4353,7 @@
         <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="n">
         <v>1000.0</v>
@@ -4371,10 +4362,10 @@
         <v>1000.0</v>
       </c>
       <c r="F12" t="n">
-        <v>200.0</v>
+        <v>600.0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.0000454026E11</v>
+        <v>1.0001619164E11</v>
       </c>
       <c r="H12" t="n">
         <v>1.0</v>
@@ -4387,10 +4378,10 @@
       </c>
       <c r="K12"/>
       <c r="L12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N12" t="s">
         <v>9</v>
@@ -4408,7 +4399,7 @@
         <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" t="n">
         <v>1000.0</v>
@@ -4420,7 +4411,7 @@
         <v>0.0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.0000453926E11</v>
+        <v>1.0001619064E11</v>
       </c>
       <c r="H13" t="n">
         <v>1.0</v>
@@ -4429,14 +4420,14 @@
         <v>164</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N13" t="s">
         <v>9</v>
@@ -4454,7 +4445,7 @@
         <v>169</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" t="n">
         <v>1000.0</v>
@@ -4466,7 +4457,7 @@
         <v>0.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.0000453826E11</v>
+        <v>1.0001618964E11</v>
       </c>
       <c r="H14" t="n">
         <v>1.0</v>
@@ -4475,14 +4466,14 @@
         <v>170</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K14"/>
       <c r="L14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N14" t="s">
         <v>9</v>
@@ -4500,7 +4491,7 @@
         <v>175</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" t="n">
         <v>1000.0</v>
@@ -4509,10 +4500,10 @@
         <v>1000.0</v>
       </c>
       <c r="F15" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.0000453746E11</v>
+        <v>1.0001618864E11</v>
       </c>
       <c r="H15" t="n">
         <v>1.0</v>
@@ -4521,14 +4512,14 @@
         <v>176</v>
       </c>
       <c r="J15" t="s">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="K15"/>
       <c r="L15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N15" t="s">
         <v>9</v>
@@ -4540,41 +4531,41 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.0001618764E11</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I16" t="s">
         <v>182</v>
       </c>
-      <c r="B16" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.0000453646E11</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>184</v>
-      </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K16"/>
       <c r="L16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N16" t="s">
         <v>9</v>
@@ -4586,41 +4577,41 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.0001618664E11</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I17" t="s">
         <v>188</v>
       </c>
-      <c r="B17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.0000453546E11</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>190</v>
-      </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K17"/>
       <c r="L17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N17" t="s">
         <v>9</v>
@@ -4632,41 +4623,41 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.0001618564E11</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I18" t="s">
         <v>194</v>
       </c>
-      <c r="B18" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.0000453446E11</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>196</v>
-      </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K18"/>
       <c r="L18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N18" t="s">
         <v>9</v>
@@ -4678,41 +4669,41 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.0001618464E11</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I19" t="s">
         <v>200</v>
       </c>
-      <c r="B19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.0000453346E11</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>202</v>
-      </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K19"/>
       <c r="L19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N19" t="s">
         <v>9</v>
@@ -4724,41 +4715,41 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.0001618364E11</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I20" t="s">
         <v>206</v>
       </c>
-      <c r="B20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.0000453246E11</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>208</v>
-      </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K20"/>
       <c r="L20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N20" t="s">
         <v>9</v>
@@ -4770,41 +4761,41 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.0001618384E11</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I21" t="s">
         <v>212</v>
       </c>
-      <c r="B21" t="s">
-        <v>213</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>9000.0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.0000454046E11</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>214</v>
-      </c>
-      <c r="J21" t="s">
-        <v>216</v>
       </c>
       <c r="K21"/>
       <c r="L21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N21" t="s">
         <v>9</v>
@@ -4816,41 +4807,41 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.0001618284E11</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I22" t="s">
         <v>220</v>
       </c>
-      <c r="B22" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3600.0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.0000454306E11</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>222</v>
-      </c>
       <c r="J22" t="s">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="K22"/>
       <c r="L22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N22" t="s">
         <v>9</v>
@@ -4875,7 +4866,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -4884,58 +4875,58 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
       <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>63</v>
       </c>
-      <c r="L1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>67</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" t="s">
         <v>73</v>
       </c>
-      <c r="R1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S1" t="s">
-        <v>75</v>
-      </c>
       <c r="T1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="V1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
@@ -4943,19 +4934,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0000453606E9</v>
+        <v>1.0001619904E9</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G2" t="n">
         <v>10.0</v>
@@ -4967,63 +4958,63 @@
         <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="K2" t="n">
-        <v>30.0</v>
+        <v>-10.0</v>
       </c>
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" t="s">
         <v>66</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>68</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>70</v>
       </c>
-      <c r="P2" t="s">
-        <v>72</v>
-      </c>
       <c r="Q2" t="n">
-        <v>1.563438403464E12</v>
+        <v>1.565156845186E12</v>
       </c>
       <c r="R2" t="n">
-        <v>44344.0</v>
+        <v>10.0</v>
       </c>
       <c r="S2" t="n">
-        <v>46364.4</v>
+        <v>-10.0</v>
       </c>
       <c r="T2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U2" t="n">
-        <v>44344.0</v>
+        <v>10.0</v>
       </c>
       <c r="V2" t="n">
-        <v>90708.4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0000453506E9</v>
+        <v>1.0001619804E9</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G3" t="n">
         <v>10.0</v>
@@ -5032,7 +5023,7 @@
         <v>10.0</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J3" t="n">
         <v>0.0</v>
@@ -5044,54 +5035,54 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" t="s">
         <v>66</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>68</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>70</v>
       </c>
-      <c r="P3" t="s">
-        <v>72</v>
-      </c>
       <c r="Q3" t="n">
-        <v>1.563438407524E12</v>
+        <v>1.565156851998E12</v>
       </c>
       <c r="R3" t="n">
-        <v>44354.0</v>
+        <v>20.0</v>
       </c>
       <c r="S3" t="n">
-        <v>46354.4</v>
+        <v>-20.0</v>
       </c>
       <c r="T3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U3" t="n">
-        <v>44354.0</v>
+        <v>20.0</v>
       </c>
       <c r="V3" t="n">
-        <v>90708.4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0000453406E9</v>
+        <v>1.0001619704E9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" t="n">
         <v>10.0</v>
@@ -5100,7 +5091,7 @@
         <v>10.0</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J4" t="n">
         <v>0.0</v>
@@ -5112,42 +5103,42 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>68</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>70</v>
       </c>
-      <c r="P4" t="s">
-        <v>72</v>
-      </c>
       <c r="Q4" t="n">
-        <v>1.563438425711E12</v>
+        <v>1.565156906295E12</v>
       </c>
       <c r="R4" t="n">
-        <v>44364.0</v>
+        <v>30.0</v>
       </c>
       <c r="S4" t="n">
-        <v>46344.4</v>
+        <v>-30.0</v>
       </c>
       <c r="T4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="U4" t="n">
-        <v>44364.0</v>
+        <v>30.0</v>
       </c>
       <c r="V4" t="n">
-        <v>90708.4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" t="n">
-        <v>1.0000453306E9</v>
+        <v>1.0001619624E9</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -5159,7 +5150,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G5" t="n">
         <v>10.0</v>
@@ -5168,46 +5159,46 @@
         <v>10.0</v>
       </c>
       <c r="I5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K5" t="n">
-        <v>-10.0</v>
+        <v>-8.0</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
       <c r="M5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
         <v>66</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>68</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>70</v>
       </c>
-      <c r="P5" t="s">
-        <v>72</v>
-      </c>
       <c r="Q5" t="n">
-        <v>1.56343843384E12</v>
+        <v>1.565156919138E12</v>
       </c>
       <c r="R5" t="n">
-        <v>44374.0</v>
+        <v>40.0</v>
       </c>
       <c r="S5" t="n">
-        <v>46334.4</v>
+        <v>-38.0</v>
       </c>
       <c r="T5" t="s">
         <v>112</v>
       </c>
       <c r="U5" t="n">
-        <v>44374.0</v>
+        <v>40.0</v>
       </c>
       <c r="V5" t="n">
-        <v>90708.4</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -5215,19 +5206,19 @@
         <v>114</v>
       </c>
       <c r="B6" t="n">
-        <v>1.0000454206E9</v>
+        <v>1.0001619524E9</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G6" t="n">
         <v>10.0</v>
@@ -5239,63 +5230,63 @@
         <v>115</v>
       </c>
       <c r="J6" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K6" t="n">
-        <v>90.0</v>
+        <v>-10.0</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
       </c>
       <c r="M6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" t="s">
         <v>66</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>68</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>70</v>
       </c>
-      <c r="P6" t="s">
-        <v>72</v>
-      </c>
       <c r="Q6" t="n">
-        <v>1.56343843874E12</v>
+        <v>1.565156924914E12</v>
       </c>
       <c r="R6" t="n">
-        <v>44384.0</v>
+        <v>50.0</v>
       </c>
       <c r="S6" t="n">
-        <v>46424.4</v>
+        <v>-48.0</v>
       </c>
       <c r="T6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="U6" t="n">
-        <v>44384.0</v>
+        <v>50.0</v>
       </c>
       <c r="V6" t="n">
-        <v>90808.4</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" t="n">
-        <v>1.0000454206E9</v>
+        <v>1.0001619424E9</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G7" t="n">
         <v>10.0</v>
@@ -5304,66 +5295,66 @@
         <v>10.0</v>
       </c>
       <c r="I7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J7" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0</v>
+        <v>-10.0</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
       </c>
       <c r="M7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" t="s">
         <v>66</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>68</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>70</v>
       </c>
-      <c r="P7" t="s">
-        <v>72</v>
-      </c>
       <c r="Q7" t="n">
-        <v>1.5634384489E12</v>
+        <v>1.565156933396E12</v>
       </c>
       <c r="R7" t="n">
-        <v>44394.0</v>
+        <v>60.0</v>
       </c>
       <c r="S7" t="n">
-        <v>46424.4</v>
+        <v>-58.0</v>
       </c>
       <c r="T7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="U7" t="n">
-        <v>44394.0</v>
+        <v>60.0</v>
       </c>
       <c r="V7" t="n">
-        <v>90818.4</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.0001619324E9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>129</v>
       </c>
-      <c r="B8" t="n">
-        <v>1.0000454406E9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>134</v>
-      </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G8" t="n">
         <v>10.0</v>
@@ -5372,66 +5363,66 @@
         <v>10.0</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J8" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="K8" t="n">
-        <v>20.0</v>
+        <v>-10.0</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
       </c>
       <c r="M8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" t="s">
         <v>66</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>68</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>70</v>
       </c>
-      <c r="P8" t="s">
-        <v>72</v>
-      </c>
       <c r="Q8" t="n">
-        <v>1.563438456949E12</v>
+        <v>1.56515694287E12</v>
       </c>
       <c r="R8" t="n">
-        <v>44404.0</v>
+        <v>70.0</v>
       </c>
       <c r="S8" t="n">
-        <v>46444.4</v>
+        <v>-68.0</v>
       </c>
       <c r="T8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="U8" t="n">
-        <v>44404.0</v>
+        <v>70.0</v>
       </c>
       <c r="V8" t="n">
-        <v>90848.4</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0001619384E9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>137</v>
       </c>
-      <c r="B9" t="n">
-        <v>1.0000454306E9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>140</v>
-      </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" t="n">
         <v>10.0</v>
@@ -5440,66 +5431,66 @@
         <v>10.0</v>
       </c>
       <c r="I9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="K9" t="n">
-        <v>-10.0</v>
+        <v>6.0</v>
       </c>
       <c r="L9" t="s">
         <v>0</v>
       </c>
       <c r="M9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" t="s">
         <v>66</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>68</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>70</v>
       </c>
-      <c r="P9" t="s">
-        <v>72</v>
-      </c>
       <c r="Q9" t="n">
-        <v>1.563438465207E12</v>
+        <v>1.565156952062E12</v>
       </c>
       <c r="R9" t="n">
-        <v>44414.0</v>
+        <v>80.0</v>
       </c>
       <c r="S9" t="n">
-        <v>46434.4</v>
+        <v>-62.0</v>
       </c>
       <c r="T9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="U9" t="n">
-        <v>44414.0</v>
+        <v>80.0</v>
       </c>
       <c r="V9" t="n">
-        <v>90848.4</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.0001619284E9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>143</v>
       </c>
-      <c r="B10" t="n">
-        <v>1.0000454206E9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>146</v>
-      </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G10" t="n">
         <v>10.0</v>
@@ -5508,7 +5499,7 @@
         <v>10.0</v>
       </c>
       <c r="I10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J10" t="n">
         <v>0.0</v>
@@ -5520,42 +5511,42 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" t="s">
         <v>66</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>68</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>70</v>
       </c>
-      <c r="P10" t="s">
-        <v>72</v>
-      </c>
       <c r="Q10" t="n">
-        <v>1.563438473374E12</v>
+        <v>1.56515696193E12</v>
       </c>
       <c r="R10" t="n">
-        <v>44424.0</v>
+        <v>90.0</v>
       </c>
       <c r="S10" t="n">
-        <v>46424.4</v>
+        <v>-72.0</v>
       </c>
       <c r="T10" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="U10" t="n">
-        <v>44424.0</v>
+        <v>90.0</v>
       </c>
       <c r="V10" t="n">
-        <v>90848.4</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" t="n">
-        <v>1.0000454106E9</v>
+        <v>1.0001619204E9</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -5567,7 +5558,7 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G11" t="n">
         <v>10.0</v>
@@ -5576,46 +5567,46 @@
         <v>10.0</v>
       </c>
       <c r="I11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K11" t="n">
-        <v>-10.0</v>
+        <v>-8.0</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
       </c>
       <c r="M11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" t="s">
         <v>66</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>68</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>70</v>
       </c>
-      <c r="P11" t="s">
-        <v>72</v>
-      </c>
       <c r="Q11" t="n">
-        <v>1.563438481533E12</v>
+        <v>1.565156971253E12</v>
       </c>
       <c r="R11" t="n">
-        <v>44434.0</v>
+        <v>100.0</v>
       </c>
       <c r="S11" t="n">
-        <v>46414.4</v>
+        <v>-80.0</v>
       </c>
       <c r="T11" t="s">
         <v>152</v>
       </c>
       <c r="U11" t="n">
-        <v>44434.0</v>
+        <v>100.0</v>
       </c>
       <c r="V11" t="n">
-        <v>90848.4</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="12">
@@ -5623,7 +5614,7 @@
         <v>154</v>
       </c>
       <c r="B12" t="n">
-        <v>1.0000454026E9</v>
+        <v>1.0001619164E9</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -5635,7 +5626,7 @@
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G12" t="n">
         <v>10.0</v>
@@ -5647,43 +5638,43 @@
         <v>155</v>
       </c>
       <c r="J12" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="K12" t="n">
-        <v>-8.0</v>
+        <v>-4.0</v>
       </c>
       <c r="L12" t="s">
         <v>0</v>
       </c>
       <c r="M12" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" t="s">
         <v>66</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>68</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>70</v>
       </c>
-      <c r="P12" t="s">
-        <v>72</v>
-      </c>
       <c r="Q12" t="n">
-        <v>1.563438490028E12</v>
+        <v>1.565156981578E12</v>
       </c>
       <c r="R12" t="n">
-        <v>44444.0</v>
+        <v>110.0</v>
       </c>
       <c r="S12" t="n">
-        <v>46406.4</v>
+        <v>-84.0</v>
       </c>
       <c r="T12" t="s">
         <v>160</v>
       </c>
       <c r="U12" t="n">
-        <v>44444.0</v>
+        <v>110.0</v>
       </c>
       <c r="V12" t="n">
-        <v>90850.4</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="13">
@@ -5691,7 +5682,7 @@
         <v>162</v>
       </c>
       <c r="B13" t="n">
-        <v>1.0000453926E9</v>
+        <v>1.0001619064E9</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -5703,7 +5694,7 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G13" t="n">
         <v>10.0</v>
@@ -5724,34 +5715,34 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" t="s">
         <v>66</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>68</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>70</v>
       </c>
-      <c r="P13" t="s">
-        <v>72</v>
-      </c>
       <c r="Q13" t="n">
-        <v>1.563438497378E12</v>
+        <v>1.565156994334E12</v>
       </c>
       <c r="R13" t="n">
-        <v>44454.0</v>
+        <v>120.0</v>
       </c>
       <c r="S13" t="n">
-        <v>46396.4</v>
+        <v>-94.0</v>
       </c>
       <c r="T13" t="s">
         <v>166</v>
       </c>
       <c r="U13" t="n">
-        <v>44454.0</v>
+        <v>120.0</v>
       </c>
       <c r="V13" t="n">
-        <v>90850.4</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="14">
@@ -5759,7 +5750,7 @@
         <v>168</v>
       </c>
       <c r="B14" t="n">
-        <v>1.0000453826E9</v>
+        <v>1.0001618964E9</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -5771,7 +5762,7 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G14" t="n">
         <v>10.0</v>
@@ -5792,34 +5783,34 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" t="s">
         <v>66</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>68</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>70</v>
       </c>
-      <c r="P14" t="s">
-        <v>72</v>
-      </c>
       <c r="Q14" t="n">
-        <v>1.563438508265E12</v>
+        <v>1.565157004256E12</v>
       </c>
       <c r="R14" t="n">
-        <v>44464.0</v>
+        <v>130.0</v>
       </c>
       <c r="S14" t="n">
-        <v>46386.4</v>
+        <v>-104.0</v>
       </c>
       <c r="T14" t="s">
         <v>172</v>
       </c>
       <c r="U14" t="n">
-        <v>44464.0</v>
+        <v>130.0</v>
       </c>
       <c r="V14" t="n">
-        <v>90850.4</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="15">
@@ -5827,19 +5818,19 @@
         <v>174</v>
       </c>
       <c r="B15" t="n">
-        <v>1.0000453746E9</v>
+        <v>1.0001618864E9</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G15" t="n">
         <v>10.0</v>
@@ -5851,63 +5842,63 @@
         <v>175</v>
       </c>
       <c r="J15" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K15" t="n">
-        <v>-8.0</v>
+        <v>-10.0</v>
       </c>
       <c r="L15" t="s">
         <v>0</v>
       </c>
       <c r="M15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" t="s">
         <v>66</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>68</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>70</v>
       </c>
-      <c r="P15" t="s">
-        <v>72</v>
-      </c>
       <c r="Q15" t="n">
-        <v>1.563438516581E12</v>
+        <v>1.5651570143E12</v>
       </c>
       <c r="R15" t="n">
-        <v>44474.0</v>
+        <v>140.0</v>
       </c>
       <c r="S15" t="n">
-        <v>46378.4</v>
+        <v>-114.0</v>
       </c>
       <c r="T15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="U15" t="n">
-        <v>44474.0</v>
+        <v>140.0</v>
       </c>
       <c r="V15" t="n">
-        <v>90852.4</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B16" t="n">
-        <v>1.0000453646E9</v>
+        <v>1.0001618764E9</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" t="n">
         <v>10.0</v>
@@ -5916,7 +5907,7 @@
         <v>10.0</v>
       </c>
       <c r="I16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J16" t="n">
         <v>0.0</v>
@@ -5928,54 +5919,54 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" t="s">
         <v>66</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>68</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>70</v>
       </c>
-      <c r="P16" t="s">
-        <v>72</v>
-      </c>
       <c r="Q16" t="n">
-        <v>1.563438521732E12</v>
+        <v>1.565157025169E12</v>
       </c>
       <c r="R16" t="n">
-        <v>44484.0</v>
+        <v>150.0</v>
       </c>
       <c r="S16" t="n">
-        <v>46368.4</v>
+        <v>-124.0</v>
       </c>
       <c r="T16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="U16" t="n">
-        <v>44484.0</v>
+        <v>150.0</v>
       </c>
       <c r="V16" t="n">
-        <v>90852.4</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B17" t="n">
-        <v>1.0000453546E9</v>
+        <v>1.0001618664E9</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" t="n">
         <v>10.0</v>
@@ -5984,7 +5975,7 @@
         <v>10.0</v>
       </c>
       <c r="I17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J17" t="n">
         <v>0.0</v>
@@ -5996,54 +5987,54 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" t="s">
         <v>66</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>68</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>70</v>
       </c>
-      <c r="P17" t="s">
-        <v>72</v>
-      </c>
       <c r="Q17" t="n">
-        <v>1.563438528486E12</v>
+        <v>1.565157036226E12</v>
       </c>
       <c r="R17" t="n">
-        <v>44494.0</v>
+        <v>160.0</v>
       </c>
       <c r="S17" t="n">
-        <v>46358.4</v>
+        <v>-134.0</v>
       </c>
       <c r="T17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="U17" t="n">
-        <v>44494.0</v>
+        <v>160.0</v>
       </c>
       <c r="V17" t="n">
-        <v>90852.4</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B18" t="n">
-        <v>1.0000453446E9</v>
+        <v>1.0001618564E9</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G18" t="n">
         <v>10.0</v>
@@ -6052,7 +6043,7 @@
         <v>10.0</v>
       </c>
       <c r="I18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J18" t="n">
         <v>0.0</v>
@@ -6064,54 +6055,54 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
+        <v>64</v>
+      </c>
+      <c r="N18" t="s">
         <v>66</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>68</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>70</v>
       </c>
-      <c r="P18" t="s">
-        <v>72</v>
-      </c>
       <c r="Q18" t="n">
-        <v>1.563438533831E12</v>
+        <v>1.565157047388E12</v>
       </c>
       <c r="R18" t="n">
-        <v>44504.0</v>
+        <v>170.0</v>
       </c>
       <c r="S18" t="n">
-        <v>46348.4</v>
+        <v>-144.0</v>
       </c>
       <c r="T18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="U18" t="n">
-        <v>44504.0</v>
+        <v>170.0</v>
       </c>
       <c r="V18" t="n">
-        <v>90852.4</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B19" t="n">
-        <v>1.0000453346E9</v>
+        <v>1.0001618464E9</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G19" t="n">
         <v>10.0</v>
@@ -6120,7 +6111,7 @@
         <v>10.0</v>
       </c>
       <c r="I19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J19" t="n">
         <v>0.0</v>
@@ -6132,54 +6123,54 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19" t="s">
         <v>66</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>68</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>70</v>
       </c>
-      <c r="P19" t="s">
-        <v>72</v>
-      </c>
       <c r="Q19" t="n">
-        <v>1.563438539316E12</v>
+        <v>1.565157058641E12</v>
       </c>
       <c r="R19" t="n">
-        <v>44514.0</v>
+        <v>180.0</v>
       </c>
       <c r="S19" t="n">
-        <v>46338.4</v>
+        <v>-154.0</v>
       </c>
       <c r="T19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="U19" t="n">
-        <v>44514.0</v>
+        <v>180.0</v>
       </c>
       <c r="V19" t="n">
-        <v>90852.4</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B20" t="n">
-        <v>1.0000453246E9</v>
+        <v>1.0001618364E9</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G20" t="n">
         <v>10.0</v>
@@ -6188,7 +6179,7 @@
         <v>10.0</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J20" t="n">
         <v>0.0</v>
@@ -6200,54 +6191,54 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
+        <v>64</v>
+      </c>
+      <c r="N20" t="s">
         <v>66</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>68</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>70</v>
       </c>
-      <c r="P20" t="s">
-        <v>72</v>
-      </c>
       <c r="Q20" t="n">
-        <v>1.563438544303E12</v>
+        <v>1.565157070013E12</v>
       </c>
       <c r="R20" t="n">
-        <v>44524.0</v>
+        <v>190.0</v>
       </c>
       <c r="S20" t="n">
-        <v>46328.4</v>
+        <v>-164.0</v>
       </c>
       <c r="T20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="U20" t="n">
-        <v>44524.0</v>
+        <v>190.0</v>
       </c>
       <c r="V20" t="n">
-        <v>90852.4</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B21" t="n">
-        <v>1.0000454046E9</v>
+        <v>1.0001618384E9</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G21" t="n">
         <v>10.0</v>
@@ -6256,66 +6247,66 @@
         <v>10.0</v>
       </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J21" t="n">
-        <v>90.0</v>
+        <v>12.0</v>
       </c>
       <c r="K21" t="n">
-        <v>80.0</v>
+        <v>2.0</v>
       </c>
       <c r="L21" t="s">
         <v>0</v>
       </c>
       <c r="M21" t="s">
+        <v>64</v>
+      </c>
+      <c r="N21" t="s">
         <v>66</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>68</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>70</v>
       </c>
-      <c r="P21" t="s">
-        <v>72</v>
-      </c>
       <c r="Q21" t="n">
-        <v>1.563438549684E12</v>
+        <v>1.565157081542E12</v>
       </c>
       <c r="R21" t="n">
-        <v>44534.0</v>
+        <v>200.0</v>
       </c>
       <c r="S21" t="n">
-        <v>46408.4</v>
+        <v>-162.0</v>
       </c>
       <c r="T21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="U21" t="n">
-        <v>44534.0</v>
+        <v>200.0</v>
       </c>
       <c r="V21" t="n">
-        <v>90942.4</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B22" t="n">
-        <v>1.0000454306E9</v>
+        <v>1.0001618284E9</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G22" t="n">
         <v>10.0</v>
@@ -6324,46 +6315,46 @@
         <v>10.0</v>
       </c>
       <c r="I22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J22" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="K22" t="n">
-        <v>26.0</v>
+        <v>-10.0</v>
       </c>
       <c r="L22" t="s">
         <v>0</v>
       </c>
       <c r="M22" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" t="s">
         <v>66</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>68</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>70</v>
       </c>
-      <c r="P22" t="s">
-        <v>72</v>
-      </c>
       <c r="Q22" t="n">
-        <v>1.563438555247E12</v>
+        <v>1.565157093395E12</v>
       </c>
       <c r="R22" t="n">
-        <v>44544.0</v>
+        <v>210.0</v>
       </c>
       <c r="S22" t="n">
-        <v>46434.4</v>
+        <v>-172.0</v>
       </c>
       <c r="T22" t="s">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="U22" t="n">
-        <v>44544.0</v>
+        <v>210.0</v>
       </c>
       <c r="V22" t="n">
-        <v>90978.4</v>
+        <v>38.0</v>
       </c>
     </row>
   </sheetData>
@@ -6381,28 +6372,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" t="s">
-        <v>86</v>
-      </c>
       <c r="H1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
@@ -6411,40 +6402,40 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M1" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" t="s">
         <v>89</v>
       </c>
-      <c r="O1" t="s">
-        <v>91</v>
-      </c>
       <c r="P1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R1" t="s">
         <v>1</v>
       </c>
       <c r="S1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2">
       <c r="A2"/>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="n">
@@ -6454,13 +6445,13 @@
         <v>1000.0</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -6472,22 +6463,22 @@
         <v>1000.0</v>
       </c>
       <c r="L2" t="n">
-        <v>4000.0</v>
+        <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.0000453606E11</v>
+        <v>1.0001619904E11</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R2" t="s">
         <v>2</v>
@@ -6500,7 +6491,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="n">
@@ -6510,16 +6501,16 @@
         <v>1000.0</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
@@ -6531,22 +6522,22 @@
         <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.0000453506E11</v>
+        <v>1.0001619804E11</v>
       </c>
       <c r="N3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O3" t="s">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S3"/>
       <c r="T3" t="n">
@@ -6556,7 +6547,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="n">
@@ -6566,16 +6557,16 @@
         <v>1000.0</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J4" t="s">
         <v>5</v>
@@ -6587,22 +6578,22 @@
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.0000453406E11</v>
+        <v>1.0001619704E11</v>
       </c>
       <c r="N4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O4" t="s">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S4"/>
       <c r="T4" t="n">
@@ -6612,7 +6603,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="n">
@@ -6622,16 +6613,16 @@
         <v>1000.0</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J5" t="s">
         <v>5</v>
@@ -6640,10 +6631,10 @@
         <v>1000.0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.0000453306E11</v>
+        <v>1.0001619624E11</v>
       </c>
       <c r="N5" t="s">
         <v>113</v>
@@ -6652,13 +6643,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="S5"/>
       <c r="T5" t="n">
@@ -6668,7 +6659,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="n">
@@ -6678,13 +6669,13 @@
         <v>1000.0</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
         <v>115</v>
@@ -6696,22 +6687,22 @@
         <v>1000.0</v>
       </c>
       <c r="L6" t="n">
-        <v>10000.0</v>
+        <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.0000454206E11</v>
+        <v>1.0001619524E11</v>
       </c>
       <c r="N6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O6" t="s">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R6" t="s">
         <v>114</v>
@@ -6724,7 +6715,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="n">
@@ -6734,16 +6725,16 @@
         <v>1000.0</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J7" t="s">
         <v>5</v>
@@ -6752,25 +6743,25 @@
         <v>1000.0</v>
       </c>
       <c r="L7" t="n">
-        <v>1000.0</v>
+        <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.0000454206E11</v>
+        <v>1.0001619424E11</v>
       </c>
       <c r="N7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O7" t="s">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S7"/>
       <c r="T7" t="n">
@@ -6780,7 +6771,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="n">
@@ -6790,16 +6781,16 @@
         <v>1000.0</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J8" t="s">
         <v>5</v>
@@ -6808,25 +6799,25 @@
         <v>1000.0</v>
       </c>
       <c r="L8" t="n">
-        <v>3000.0</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.0000454406E11</v>
+        <v>1.0001619324E11</v>
       </c>
       <c r="N8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O8" t="s">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="S8"/>
       <c r="T8" t="n">
@@ -6836,7 +6827,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="n">
@@ -6846,16 +6837,16 @@
         <v>1000.0</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J9" t="s">
         <v>5</v>
@@ -6864,25 +6855,25 @@
         <v>1000.0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0</v>
+        <v>1600.0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.0000454306E11</v>
+        <v>1.0001619384E11</v>
       </c>
       <c r="N9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O9" t="s">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="S9"/>
       <c r="T9" t="n">
@@ -6892,7 +6883,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="n">
@@ -6902,16 +6893,16 @@
         <v>1000.0</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J10" t="s">
         <v>5</v>
@@ -6923,22 +6914,22 @@
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.0000454206E11</v>
+        <v>1.0001619284E11</v>
       </c>
       <c r="N10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O10" t="s">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="S10"/>
       <c r="T10" t="n">
@@ -6948,7 +6939,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="n">
@@ -6958,16 +6949,16 @@
         <v>1000.0</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J11" t="s">
         <v>5</v>
@@ -6976,10 +6967,10 @@
         <v>1000.0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.0000454106E11</v>
+        <v>1.0001619204E11</v>
       </c>
       <c r="N11" t="s">
         <v>153</v>
@@ -6988,13 +6979,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="S11"/>
       <c r="T11" t="n">
@@ -7004,7 +6995,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="n">
@@ -7014,13 +7005,13 @@
         <v>1000.0</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
         <v>155</v>
@@ -7032,10 +7023,10 @@
         <v>1000.0</v>
       </c>
       <c r="L12" t="n">
-        <v>200.0</v>
+        <v>600.0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.0000454026E11</v>
+        <v>1.0001619164E11</v>
       </c>
       <c r="N12" t="s">
         <v>161</v>
@@ -7044,10 +7035,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R12" t="s">
         <v>154</v>
@@ -7060,7 +7051,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="n">
@@ -7070,13 +7061,13 @@
         <v>1000.0</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
         <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
         <v>163</v>
@@ -7091,7 +7082,7 @@
         <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.0000453926E11</v>
+        <v>1.0001619064E11</v>
       </c>
       <c r="N13" t="s">
         <v>167</v>
@@ -7100,10 +7091,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R13" t="s">
         <v>162</v>
@@ -7116,7 +7107,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="n">
@@ -7126,13 +7117,13 @@
         <v>1000.0</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
         <v>169</v>
@@ -7147,7 +7138,7 @@
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.0000453826E11</v>
+        <v>1.0001618964E11</v>
       </c>
       <c r="N14" t="s">
         <v>173</v>
@@ -7156,10 +7147,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R14" t="s">
         <v>168</v>
@@ -7172,7 +7163,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="n">
@@ -7182,13 +7173,13 @@
         <v>1000.0</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s">
         <v>175</v>
@@ -7200,22 +7191,22 @@
         <v>1000.0</v>
       </c>
       <c r="L15" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.0000453746E11</v>
+        <v>1.0001618864E11</v>
       </c>
       <c r="N15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R15" t="s">
         <v>174</v>
@@ -7228,7 +7219,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="n">
@@ -7238,16 +7229,16 @@
         <v>1000.0</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
         <v>9</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J16" t="s">
         <v>5</v>
@@ -7259,22 +7250,22 @@
         <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.0000453646E11</v>
+        <v>1.0001618764E11</v>
       </c>
       <c r="N16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O16" t="s">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S16"/>
       <c r="T16" t="n">
@@ -7284,7 +7275,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="n">
@@ -7294,16 +7285,16 @@
         <v>1000.0</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
         <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J17" t="s">
         <v>5</v>
@@ -7315,22 +7306,22 @@
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.0000453546E11</v>
+        <v>1.0001618664E11</v>
       </c>
       <c r="N17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O17" t="s">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="S17"/>
       <c r="T17" t="n">
@@ -7340,7 +7331,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="n">
@@ -7350,16 +7341,16 @@
         <v>1000.0</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
         <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J18" t="s">
         <v>5</v>
@@ -7371,22 +7362,22 @@
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.0000453446E11</v>
+        <v>1.0001618564E11</v>
       </c>
       <c r="N18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O18" t="s">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S18"/>
       <c r="T18" t="n">
@@ -7396,7 +7387,7 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="n">
@@ -7406,16 +7397,16 @@
         <v>1000.0</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s">
         <v>9</v>
       </c>
       <c r="H19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J19" t="s">
         <v>5</v>
@@ -7427,22 +7418,22 @@
         <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.0000453346E11</v>
+        <v>1.0001618464E11</v>
       </c>
       <c r="N19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O19" t="s">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="S19"/>
       <c r="T19" t="n">
@@ -7452,7 +7443,7 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="n">
@@ -7462,16 +7453,16 @@
         <v>1000.0</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
         <v>9</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J20" t="s">
         <v>5</v>
@@ -7483,22 +7474,22 @@
         <v>0.0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.0000453246E11</v>
+        <v>1.0001618364E11</v>
       </c>
       <c r="N20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O20" t="s">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="S20"/>
       <c r="T20" t="n">
@@ -7508,7 +7499,7 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="n">
@@ -7518,16 +7509,16 @@
         <v>1000.0</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
         <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J21" t="s">
         <v>5</v>
@@ -7536,25 +7527,25 @@
         <v>1000.0</v>
       </c>
       <c r="L21" t="n">
-        <v>9000.0</v>
+        <v>1200.0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.0000454046E11</v>
+        <v>1.0001618384E11</v>
       </c>
       <c r="N21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O21" t="s">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S21"/>
       <c r="T21" t="n">
@@ -7564,7 +7555,7 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="n">
@@ -7574,16 +7565,16 @@
         <v>1000.0</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
         <v>9</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
         <v>5</v>
@@ -7592,25 +7583,25 @@
         <v>1000.0</v>
       </c>
       <c r="L22" t="n">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.0000454306E11</v>
+        <v>1.0001618284E11</v>
       </c>
       <c r="N22" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="S22"/>
       <c r="T22" t="n">
